--- a/Dim/FictionalCompanyNames_ v0-01-000.xlsx
+++ b/Dim/FictionalCompanyNames_ v0-01-000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Datasets\Dim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180052C8-A9D9-4FE3-96AD-9BF0902AE3B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A183B600-4490-49DA-8FE6-D7F8AA499CE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="11520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Companies" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="1027">
   <si>
     <t>Company Name</t>
   </si>
@@ -2782,6 +2782,366 @@
   </si>
   <si>
     <t>Notable Person Roles (Ideia)</t>
+  </si>
+  <si>
+    <t>Anvil</t>
+  </si>
+  <si>
+    <t>Acme Anvil</t>
+  </si>
+  <si>
+    <t>Acme School of Self Defense - Boxing Instructions</t>
+  </si>
+  <si>
+    <t>LP Vinyl Record</t>
+  </si>
+  <si>
+    <t>Acme Toaster</t>
+  </si>
+  <si>
+    <t>Acme Super Outfit</t>
+  </si>
+  <si>
+    <t>Acme Hen Grenade</t>
+  </si>
+  <si>
+    <t>Explosive Egg</t>
+  </si>
+  <si>
+    <t>Acme Aspirin</t>
+  </si>
+  <si>
+    <t>Acme Matches</t>
+  </si>
+  <si>
+    <t>Matches</t>
+  </si>
+  <si>
+    <t>Acme Rocket-Powered Roller Skates</t>
+  </si>
+  <si>
+    <t>Acme Street Cleaners Wagon</t>
+  </si>
+  <si>
+    <t>Street Cleaners Wagon</t>
+  </si>
+  <si>
+    <t>Acme Giant Kite Kit</t>
+  </si>
+  <si>
+    <t>Acme Bird Seed</t>
+  </si>
+  <si>
+    <t>Bird Seeds</t>
+  </si>
+  <si>
+    <t>Acme Nitroglycerin</t>
+  </si>
+  <si>
+    <t>Explosive Chemical</t>
+  </si>
+  <si>
+    <t>Acme Detonator</t>
+  </si>
+  <si>
+    <t>Explosive Detonator</t>
+  </si>
+  <si>
+    <t>Acme Triple-Strength Fortified Leg Muscle Vitamins</t>
+  </si>
+  <si>
+    <t>Acme Glue</t>
+  </si>
+  <si>
+    <t>Sticky Adhesive</t>
+  </si>
+  <si>
+    <t>Muscle Vitamin</t>
+  </si>
+  <si>
+    <t>Acme Female Road Runner Costume</t>
+  </si>
+  <si>
+    <t>Superhero Costume</t>
+  </si>
+  <si>
+    <t>Female Road Runner Costume</t>
+  </si>
+  <si>
+    <t>Acme Smoke Screen Bomb</t>
+  </si>
+  <si>
+    <t>Smoke Bomb</t>
+  </si>
+  <si>
+    <t>Acme Artificial Rock</t>
+  </si>
+  <si>
+    <t>Rock Costume</t>
+  </si>
+  <si>
+    <t>Acme Hair Grower</t>
+  </si>
+  <si>
+    <t>Hair Vitamin</t>
+  </si>
+  <si>
+    <t>https://looneytunes.fandom.com/wiki/List_of_ACME_Products</t>
+  </si>
+  <si>
+    <t>Acme Trick Balls</t>
+  </si>
+  <si>
+    <t>Explosive Balls</t>
+  </si>
+  <si>
+    <t>Acme Triple-Strength Battleship Steel Armor Plate</t>
+  </si>
+  <si>
+    <t>Steel Armor Plate</t>
+  </si>
+  <si>
+    <t>Acme Bat-Man's Outfit</t>
+  </si>
+  <si>
+    <t>Acme Giant Rubber Band</t>
+  </si>
+  <si>
+    <t>Acme Jet Bike Kit</t>
+  </si>
+  <si>
+    <t>Acme Dehydrated Boulders</t>
+  </si>
+  <si>
+    <t>Acme Bumble Bees (One Fifth)</t>
+  </si>
+  <si>
+    <t>Bees In A Bottle</t>
+  </si>
+  <si>
+    <t>Boulders That Grow With Water</t>
+  </si>
+  <si>
+    <t>Acme Tornado Kit</t>
+  </si>
+  <si>
+    <t>DIY Tornado</t>
+  </si>
+  <si>
+    <t>Acme Hi-Speed Tonic</t>
+  </si>
+  <si>
+    <t>Super Velocity Vitamin</t>
+  </si>
+  <si>
+    <t>Acme Jet-Propelled Pogo-Stick</t>
+  </si>
+  <si>
+    <t>Jet-Propelled Pogo-Stick</t>
+  </si>
+  <si>
+    <t>Acme Jet-Propelled Unicycle</t>
+  </si>
+  <si>
+    <t>DIY Jet-Propelled Hover Bike</t>
+  </si>
+  <si>
+    <t>Jet-Propelled Unicycle</t>
+  </si>
+  <si>
+    <t>Acme Trick Bone</t>
+  </si>
+  <si>
+    <t>Dog Bone (Springs Shaped)</t>
+  </si>
+  <si>
+    <t>Elastic Rubber (Giant Size)</t>
+  </si>
+  <si>
+    <t>Acme Iron Pellets</t>
+  </si>
+  <si>
+    <t>Iron Pellets</t>
+  </si>
+  <si>
+    <t>Acme Indestructo Steel Ball</t>
+  </si>
+  <si>
+    <t>Steel Armor (Ball Shaped)</t>
+  </si>
+  <si>
+    <t>Acme Bomb</t>
+  </si>
+  <si>
+    <t>Rocket Shaped Time Bomb</t>
+  </si>
+  <si>
+    <t>DIY Hot Air Balloon</t>
+  </si>
+  <si>
+    <t>Acme Balloon Kit</t>
+  </si>
+  <si>
+    <t>Acme Bed Springs</t>
+  </si>
+  <si>
+    <t>Shoes With Springs</t>
+  </si>
+  <si>
+    <t>http://acme.com/catalog/</t>
+  </si>
+  <si>
+    <t>Painkiller</t>
+  </si>
+  <si>
+    <t>Jet-Propelled Roller Skates</t>
+  </si>
+  <si>
+    <t>DIY Kite (Giant Size)</t>
+  </si>
+  <si>
+    <t>Acme Christmas Package Machine</t>
+  </si>
+  <si>
+    <t>Wrapping Machine</t>
+  </si>
+  <si>
+    <t>Acme Earthquake Pills</t>
+  </si>
+  <si>
+    <t>DIY Earthquake</t>
+  </si>
+  <si>
+    <t>Acme Axle Grease</t>
+  </si>
+  <si>
+    <t>Slippery Grease</t>
+  </si>
+  <si>
+    <t>Acme Roller Skis</t>
+  </si>
+  <si>
+    <t>Skis On Wheels</t>
+  </si>
+  <si>
+    <t>Acme Iron Carrot</t>
+  </si>
+  <si>
+    <t>Iron Carrot</t>
+  </si>
+  <si>
+    <t>Acme Iron Bird Seed</t>
+  </si>
+  <si>
+    <t>Iron Bird Seeds</t>
+  </si>
+  <si>
+    <t>Acme Rocket Sled Kit</t>
+  </si>
+  <si>
+    <t>DIY Jet-Propelled Bobsled</t>
+  </si>
+  <si>
+    <t>Acme Instant Icicle Maker</t>
+  </si>
+  <si>
+    <t>Freezing Machine</t>
+  </si>
+  <si>
+    <t>Acme Boom-Erang</t>
+  </si>
+  <si>
+    <t>Boomerang</t>
+  </si>
+  <si>
+    <t>Acme Instant Awakener</t>
+  </si>
+  <si>
+    <t>Alarm Clock</t>
+  </si>
+  <si>
+    <t>Acme Invisible Paint</t>
+  </si>
+  <si>
+    <t>Invisible Paint</t>
+  </si>
+  <si>
+    <t>Acme Lightning Rod</t>
+  </si>
+  <si>
+    <t>Lightning Rod</t>
+  </si>
+  <si>
+    <t>Acme Little-Giant Snow Cloud Seeder</t>
+  </si>
+  <si>
+    <t>Snow Machine</t>
+  </si>
+  <si>
+    <t>Acme Speed Skates</t>
+  </si>
+  <si>
+    <t>Ice Skates</t>
+  </si>
+  <si>
+    <t>Acme Jet-Propelled Skis</t>
+  </si>
+  <si>
+    <t>Jet-Propelled Skis</t>
+  </si>
+  <si>
+    <t>Acme Frisbee Disc</t>
+  </si>
+  <si>
+    <t>Frisbee</t>
+  </si>
+  <si>
+    <t>Explosives</t>
+  </si>
+  <si>
+    <t>Acme Giant Fly Paper</t>
+  </si>
+  <si>
+    <t>Acme Little Giant-Giant Firecrackers (1 Dozen)</t>
+  </si>
+  <si>
+    <t>Flypaper (Giant Size)</t>
+  </si>
+  <si>
+    <t>Acme Explosive Tennis Balls</t>
+  </si>
+  <si>
+    <t>Explosive Tennis Ball</t>
+  </si>
+  <si>
+    <t>Acme Giant Mouse Trap</t>
+  </si>
+  <si>
+    <t>Mouse Trap (Giant Size)</t>
+  </si>
+  <si>
+    <t>Acme Instant Road</t>
+  </si>
+  <si>
+    <t>Road Pavement</t>
+  </si>
+  <si>
+    <t>Acme Cactus Costume</t>
+  </si>
+  <si>
+    <t>Cactus Costume</t>
+  </si>
+  <si>
+    <t>Acme Tar</t>
+  </si>
+  <si>
+    <t>Tar</t>
+  </si>
+  <si>
+    <t>Acme Super Bug Spray</t>
+  </si>
+  <si>
+    <t>Insect Repellent</t>
   </si>
 </sst>
 </file>
@@ -3483,11 +3843,11 @@
   </sheetPr>
   <dimension ref="A1:AD1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39139,9 +39499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22D48B0-B0CC-4E38-A41F-865B8B65BB5E}">
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39177,17 +39537,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>836</v>
+        <v>282</v>
       </c>
       <c r="C2" s="8" cm="1">
         <f t="array" ref="C2">_xlfn.XLOOKUP(B2,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>850</v>
+        <v>908</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>851</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -39196,17 +39556,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="C3" s="8" cm="1">
         <f t="array" ref="C3">_xlfn.XLOOKUP(B3,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>692</v>
+        <v>937</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>695</v>
+        <v>938</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -39215,17 +39575,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="C4" s="8" cm="1">
         <f t="array" ref="C4">_xlfn.XLOOKUP(B4,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>700</v>
+        <v>915</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>695</v>
+        <v>976</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -39234,17 +39594,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="C5" s="8" cm="1">
         <f t="array" ref="C5">_xlfn.XLOOKUP(B5,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>693</v>
+        <v>983</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>695</v>
+        <v>984</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -39253,17 +39613,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="C6" s="8" cm="1">
         <f t="array" ref="C6">_xlfn.XLOOKUP(B6,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>702</v>
+        <v>972</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>712</v>
+        <v>971</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -39272,17 +39632,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="C7" s="8" cm="1">
         <f t="array" ref="C7">_xlfn.XLOOKUP(B7,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>696</v>
+        <v>946</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>695</v>
+        <v>933</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -39291,17 +39651,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="C8" s="8" cm="1">
         <f t="array" ref="C8">_xlfn.XLOOKUP(B8,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>697</v>
+        <v>973</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>695</v>
+        <v>974</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -39310,17 +39670,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="C9" s="8" cm="1">
         <f t="array" ref="C9">_xlfn.XLOOKUP(B9,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>704</v>
+        <v>922</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>695</v>
+        <v>923</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -39329,17 +39689,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="C10" s="8" cm="1">
         <f t="array" ref="C10">_xlfn.XLOOKUP(B10,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>705</v>
+        <v>969</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>695</v>
+        <v>970</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -39348,17 +39708,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="C11" s="8" cm="1">
         <f t="array" ref="C11">_xlfn.XLOOKUP(B11,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>706</v>
+        <v>995</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>707</v>
+        <v>996</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -39367,17 +39727,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="C12" s="8" cm="1">
         <f t="array" ref="C12">_xlfn.XLOOKUP(B12,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>714</v>
+        <v>950</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>711</v>
+        <v>951</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -39386,17 +39746,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="C13" s="8" cm="1">
         <f t="array" ref="C13">_xlfn.XLOOKUP(B13,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>713</v>
+        <v>1021</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>711</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -39405,17 +39765,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C14" s="8" cm="1">
         <f t="array" ref="C14">_xlfn.XLOOKUP(B14,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>779</v>
+        <v>979</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>724</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -39424,17 +39784,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C15" s="8" cm="1">
         <f t="array" ref="C15">_xlfn.XLOOKUP(B15,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>788</v>
+        <v>949</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>724</v>
+        <v>952</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -39443,17 +39803,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C16" s="8" cm="1">
         <f t="array" ref="C16">_xlfn.XLOOKUP(B16,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>784</v>
+        <v>926</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>724</v>
+        <v>927</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -39462,17 +39822,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C17" s="8" cm="1">
         <f t="array" ref="C17">_xlfn.XLOOKUP(B17,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>782</v>
+        <v>981</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>724</v>
+        <v>982</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -39481,17 +39841,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C18" s="8" cm="1">
         <f t="array" ref="C18">_xlfn.XLOOKUP(B18,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>780</v>
+        <v>1015</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>724</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -39500,17 +39860,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C19" s="8" cm="1">
         <f t="array" ref="C19">_xlfn.XLOOKUP(B19,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>794</v>
+        <v>932</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>724</v>
+        <v>934</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -39519,17 +39879,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C20" s="8" cm="1">
         <f t="array" ref="C20">_xlfn.XLOOKUP(B20,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>789</v>
+        <v>1009</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>724</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -39538,17 +39898,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C21" s="8" cm="1">
         <f t="array" ref="C21">_xlfn.XLOOKUP(B21,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>795</v>
+        <v>1012</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>724</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -39557,17 +39917,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C22" s="8" cm="1">
         <f t="array" ref="C22">_xlfn.XLOOKUP(B22,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>792</v>
+        <v>921</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>724</v>
+        <v>978</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -39576,17 +39936,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C23" s="8" cm="1">
         <f t="array" ref="C23">_xlfn.XLOOKUP(B23,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>793</v>
+        <v>1017</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>724</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -39595,17 +39955,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C24" s="8" cm="1">
         <f t="array" ref="C24">_xlfn.XLOOKUP(B24,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>783</v>
+        <v>947</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>724</v>
+        <v>964</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -39614,17 +39974,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C25" s="8" cm="1">
         <f t="array" ref="C25">_xlfn.XLOOKUP(B25,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>796</v>
+        <v>929</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>724</v>
+        <v>930</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -39633,17 +39993,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C26" s="8" cm="1">
         <f t="array" ref="C26">_xlfn.XLOOKUP(B26,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>791</v>
+        <v>939</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>724</v>
+        <v>940</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -39652,17 +40012,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C27" s="8" cm="1">
         <f t="array" ref="C27">_xlfn.XLOOKUP(B27,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>781</v>
+        <v>913</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>724</v>
+        <v>914</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -39671,17 +40031,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C28" s="8" cm="1">
         <f t="array" ref="C28">_xlfn.XLOOKUP(B28,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>790</v>
+        <v>955</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>724</v>
+        <v>956</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -39690,17 +40050,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C29" s="8" cm="1">
         <f t="array" ref="C29">_xlfn.XLOOKUP(B29,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>787</v>
+        <v>967</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>724</v>
+        <v>968</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -39709,17 +40069,17 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C30" s="8" cm="1">
         <f t="array" ref="C30">_xlfn.XLOOKUP(B30,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>797</v>
+        <v>997</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>724</v>
+        <v>998</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -39728,17 +40088,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C31" s="8" cm="1">
         <f t="array" ref="C31">_xlfn.XLOOKUP(B31,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>786</v>
+        <v>993</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>724</v>
+        <v>994</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -39747,17 +40107,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C32" s="8" cm="1">
         <f t="array" ref="C32">_xlfn.XLOOKUP(B32,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>778</v>
+        <v>1019</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>724</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -39766,17 +40126,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C33" s="8" cm="1">
         <f t="array" ref="C33">_xlfn.XLOOKUP(B33,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>785</v>
+        <v>999</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>724</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -39785,17 +40145,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>894</v>
+        <v>282</v>
       </c>
       <c r="C34" s="8" cm="1">
         <f t="array" ref="C34">_xlfn.XLOOKUP(B34,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>898</v>
+        <v>989</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>899</v>
+        <v>990</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -39804,17 +40164,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="C35" s="8" cm="1">
         <f t="array" ref="C35">_xlfn.XLOOKUP(B35,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>740</v>
+        <v>987</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>716</v>
+        <v>988</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -39823,17 +40183,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="C36" s="8" cm="1">
         <f t="array" ref="C36">_xlfn.XLOOKUP(B36,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>741</v>
+        <v>965</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>716</v>
+        <v>966</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -39842,17 +40202,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="C37" s="8" cm="1">
         <f t="array" ref="C37">_xlfn.XLOOKUP(B37,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>742</v>
+        <v>948</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>716</v>
+        <v>960</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -39861,17 +40221,17 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="C38" s="8" cm="1">
         <f t="array" ref="C38">_xlfn.XLOOKUP(B38,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>743</v>
+        <v>957</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>716</v>
+        <v>958</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -39880,17 +40240,17 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="C39" s="8" cm="1">
         <f t="array" ref="C39">_xlfn.XLOOKUP(B39,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>745</v>
+        <v>1007</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>746</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -39899,17 +40259,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="C40" s="8" cm="1">
         <f t="array" ref="C40">_xlfn.XLOOKUP(B40,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>722</v>
+        <v>959</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>723</v>
+        <v>961</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -39918,17 +40278,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C41" s="8" cm="1">
         <f t="array" ref="C41">_xlfn.XLOOKUP(B41,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>799</v>
+        <v>1001</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>800</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -39937,17 +40297,17 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>818</v>
+        <v>282</v>
       </c>
       <c r="C42" s="8" cm="1">
         <f t="array" ref="C42">_xlfn.XLOOKUP(B42,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>809</v>
+        <v>1013</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>736</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -39956,17 +40316,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>818</v>
+        <v>282</v>
       </c>
       <c r="C43" s="8" cm="1">
         <f t="array" ref="C43">_xlfn.XLOOKUP(B43,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>817</v>
+        <v>1003</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>736</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -39975,17 +40335,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>818</v>
+        <v>282</v>
       </c>
       <c r="C44" s="8" cm="1">
         <f t="array" ref="C44">_xlfn.XLOOKUP(B44,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>816</v>
+        <v>916</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>736</v>
+        <v>917</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -39994,17 +40354,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>818</v>
+        <v>282</v>
       </c>
       <c r="C45" s="8" cm="1">
         <f t="array" ref="C45">_xlfn.XLOOKUP(B45,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>819</v>
+        <v>924</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>736</v>
+        <v>925</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -40013,17 +40373,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>818</v>
+        <v>282</v>
       </c>
       <c r="C46" s="8" cm="1">
         <f t="array" ref="C46">_xlfn.XLOOKUP(B46,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>810</v>
+        <v>991</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>813</v>
+        <v>992</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -40032,17 +40392,17 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>818</v>
+        <v>282</v>
       </c>
       <c r="C47" s="8" cm="1">
         <f t="array" ref="C47">_xlfn.XLOOKUP(B47,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>808</v>
+        <v>918</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>736</v>
+        <v>977</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -40051,17 +40411,17 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>818</v>
+        <v>282</v>
       </c>
       <c r="C48" s="8" cm="1">
         <f t="array" ref="C48">_xlfn.XLOOKUP(B48,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>811</v>
+        <v>985</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>736</v>
+        <v>986</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -40070,17 +40430,17 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>818</v>
+        <v>282</v>
       </c>
       <c r="C49" s="8" cm="1">
         <f t="array" ref="C49">_xlfn.XLOOKUP(B49,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>812</v>
+        <v>909</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>736</v>
+        <v>910</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -40089,17 +40449,17 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>818</v>
+        <v>282</v>
       </c>
       <c r="C50" s="8" cm="1">
         <f t="array" ref="C50">_xlfn.XLOOKUP(B50,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>814</v>
+        <v>935</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>736</v>
+        <v>936</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -40108,17 +40468,17 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>818</v>
+        <v>282</v>
       </c>
       <c r="C51" s="8" cm="1">
         <f t="array" ref="C51">_xlfn.XLOOKUP(B51,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>820</v>
+        <v>1005</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>736</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -40127,17 +40487,17 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>818</v>
+        <v>282</v>
       </c>
       <c r="C52" s="8" cm="1">
         <f t="array" ref="C52">_xlfn.XLOOKUP(B52,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>821</v>
+        <v>919</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>736</v>
+        <v>920</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -40146,17 +40506,17 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>818</v>
+        <v>282</v>
       </c>
       <c r="C53" s="8" cm="1">
         <f t="array" ref="C53">_xlfn.XLOOKUP(B53,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>822</v>
+        <v>1025</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>813</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -40165,17 +40525,17 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>818</v>
+        <v>282</v>
       </c>
       <c r="C54" s="8" cm="1">
         <f t="array" ref="C54">_xlfn.XLOOKUP(B54,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>823</v>
+        <v>912</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>736</v>
+        <v>933</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -40184,17 +40544,17 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="C55" s="8" cm="1">
         <f t="array" ref="C55">_xlfn.XLOOKUP(B55,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>715</v>
+        <v>1023</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>716</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -40203,17 +40563,17 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="C56" s="8" cm="1">
         <f t="array" ref="C56">_xlfn.XLOOKUP(B56,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>717</v>
+        <v>911</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>718</v>
+        <v>761</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -40222,17 +40582,17 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="C57" s="8" cm="1">
         <f t="array" ref="C57">_xlfn.XLOOKUP(B57,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>719</v>
+        <v>953</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>720</v>
+        <v>954</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -40241,17 +40601,17 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C58" s="8" cm="1">
         <f t="array" ref="C58">_xlfn.XLOOKUP(B58,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>726</v>
+        <v>942</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>724</v>
+        <v>943</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -40260,17 +40620,17 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>805</v>
+        <v>282</v>
       </c>
       <c r="C59" s="8" cm="1">
         <f t="array" ref="C59">_xlfn.XLOOKUP(B59,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>807</v>
+        <v>962</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>736</v>
+        <v>963</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -40279,17 +40639,17 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>756</v>
+        <v>282</v>
       </c>
       <c r="C60" s="8" cm="1">
         <f t="array" ref="C60">_xlfn.XLOOKUP(B60,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>524</v>
+        <v>944</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>755</v>
+        <v>945</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -40298,17 +40658,17 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>840</v>
+        <v>282</v>
       </c>
       <c r="C61" s="8" cm="1">
         <f t="array" ref="C61">_xlfn.XLOOKUP(B61,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>843</v>
+        <v>928</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>842</v>
+        <v>931</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -40317,17 +40677,17 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C62" s="8" cm="1">
         <f t="array" ref="C62">_xlfn.XLOOKUP(B62,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -40336,17 +40696,17 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>840</v>
+        <v>190</v>
       </c>
       <c r="C63" s="8" cm="1">
         <f t="array" ref="C63">_xlfn.XLOOKUP(B63,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>845</v>
+        <v>692</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>846</v>
+        <v>695</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -40355,17 +40715,17 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="C64" s="8" cm="1">
         <f t="array" ref="C64">_xlfn.XLOOKUP(B64,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>724</v>
+        <v>695</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -40374,17 +40734,17 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>868</v>
+        <v>190</v>
       </c>
       <c r="C65" s="8" cm="1">
         <f t="array" ref="C65">_xlfn.XLOOKUP(B65,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>872</v>
+        <v>693</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>873</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -40393,17 +40753,17 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>468</v>
+        <v>190</v>
       </c>
       <c r="C66" s="8" cm="1">
         <f t="array" ref="C66">_xlfn.XLOOKUP(B66,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -40412,17 +40772,17 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>468</v>
+        <v>190</v>
       </c>
       <c r="C67" s="8" cm="1">
         <f t="array" ref="C67">_xlfn.XLOOKUP(B67,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -40431,17 +40791,17 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>468</v>
+        <v>190</v>
       </c>
       <c r="C68" s="8" cm="1">
         <f t="array" ref="C68">_xlfn.XLOOKUP(B68,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -40450,17 +40810,17 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="C69" s="8" cm="1">
         <f t="array" ref="C69">_xlfn.XLOOKUP(B69,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>738</v>
+        <v>704</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>739</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -40469,17 +40829,17 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="C70" s="8" cm="1">
         <f t="array" ref="C70">_xlfn.XLOOKUP(B70,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>757</v>
+        <v>705</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>758</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -40488,17 +40848,17 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="C71" s="8" cm="1">
         <f t="array" ref="C71">_xlfn.XLOOKUP(B71,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>759</v>
+        <v>706</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>739</v>
+        <v>707</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -40507,17 +40867,17 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="C72" s="8" cm="1">
         <f t="array" ref="C72">_xlfn.XLOOKUP(B72,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>760</v>
+        <v>714</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>761</v>
+        <v>711</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -40526,17 +40886,17 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="C73" s="8" cm="1">
         <f t="array" ref="C73">_xlfn.XLOOKUP(B73,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>763</v>
+        <v>711</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -40545,17 +40905,17 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="C74" s="8" cm="1">
         <f t="array" ref="C74">_xlfn.XLOOKUP(B74,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>771</v>
+        <v>724</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -40564,17 +40924,17 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="C75" s="8" cm="1">
         <f t="array" ref="C75">_xlfn.XLOOKUP(B75,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>765</v>
+        <v>788</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>766</v>
+        <v>724</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -40583,17 +40943,17 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="C76" s="8" cm="1">
         <f t="array" ref="C76">_xlfn.XLOOKUP(B76,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>768</v>
+        <v>724</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -40602,17 +40962,17 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="C77" s="8" cm="1">
         <f t="array" ref="C77">_xlfn.XLOOKUP(B77,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>770</v>
+        <v>724</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -40621,17 +40981,17 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>824</v>
+        <v>305</v>
       </c>
       <c r="C78" s="8" cm="1">
         <f t="array" ref="C78">_xlfn.XLOOKUP(B78,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>826</v>
+        <v>780</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -40640,17 +41000,17 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>775</v>
+        <v>305</v>
       </c>
       <c r="C79" s="8" cm="1">
         <f t="array" ref="C79">_xlfn.XLOOKUP(B79,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>774</v>
+        <v>724</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -40659,17 +41019,17 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>775</v>
+        <v>305</v>
       </c>
       <c r="C80" s="8" cm="1">
         <f t="array" ref="C80">_xlfn.XLOOKUP(B80,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>835</v>
+        <v>789</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>774</v>
+        <v>724</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -40678,17 +41038,17 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>875</v>
+        <v>305</v>
       </c>
       <c r="C81" s="8" cm="1">
         <f t="array" ref="C81">_xlfn.XLOOKUP(B81,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>880</v>
+        <v>795</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>881</v>
+        <v>724</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -40697,17 +41057,17 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>875</v>
+        <v>305</v>
       </c>
       <c r="C82" s="8" cm="1">
         <f t="array" ref="C82">_xlfn.XLOOKUP(B82,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>882</v>
+        <v>792</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>883</v>
+        <v>724</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -40716,17 +41076,17 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>875</v>
+        <v>305</v>
       </c>
       <c r="C83" s="8" cm="1">
         <f t="array" ref="C83">_xlfn.XLOOKUP(B83,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>884</v>
+        <v>793</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>885</v>
+        <v>724</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -40735,17 +41095,17 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>875</v>
+        <v>305</v>
       </c>
       <c r="C84" s="8" cm="1">
         <f t="array" ref="C84">_xlfn.XLOOKUP(B84,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>886</v>
+        <v>783</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>883</v>
+        <v>724</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -40754,17 +41114,17 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>875</v>
+        <v>305</v>
       </c>
       <c r="C85" s="8" cm="1">
         <f t="array" ref="C85">_xlfn.XLOOKUP(B85,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>887</v>
+        <v>796</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>842</v>
+        <v>724</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -40773,17 +41133,17 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>875</v>
+        <v>305</v>
       </c>
       <c r="C86" s="8" cm="1">
         <f t="array" ref="C86">_xlfn.XLOOKUP(B86,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>888</v>
+        <v>791</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>889</v>
+        <v>724</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -40792,17 +41152,17 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>875</v>
+        <v>305</v>
       </c>
       <c r="C87" s="8" cm="1">
         <f t="array" ref="C87">_xlfn.XLOOKUP(B87,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>890</v>
+        <v>781</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>883</v>
+        <v>724</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -40811,17 +41171,17 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>875</v>
+        <v>305</v>
       </c>
       <c r="C88" s="8" cm="1">
         <f t="array" ref="C88">_xlfn.XLOOKUP(B88,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>891</v>
+        <v>790</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>881</v>
+        <v>724</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -40830,17 +41190,17 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>875</v>
+        <v>305</v>
       </c>
       <c r="C89" s="8" cm="1">
         <f t="array" ref="C89">_xlfn.XLOOKUP(B89,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>892</v>
+        <v>787</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>883</v>
+        <v>724</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -40849,17 +41209,17 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>828</v>
+        <v>305</v>
       </c>
       <c r="C90" s="8" cm="1">
         <f t="array" ref="C90">_xlfn.XLOOKUP(B90,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>831</v>
+        <v>797</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -40868,17 +41228,17 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>828</v>
+        <v>305</v>
       </c>
       <c r="C91" s="8" cm="1">
         <f t="array" ref="C91">_xlfn.XLOOKUP(B91,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>832</v>
+        <v>786</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -40887,17 +41247,17 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>828</v>
+        <v>305</v>
       </c>
       <c r="C92" s="8" cm="1">
         <f t="array" ref="C92">_xlfn.XLOOKUP(B92,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -40906,17 +41266,17 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>828</v>
+        <v>305</v>
       </c>
       <c r="C93" s="8" cm="1">
         <f t="array" ref="C93">_xlfn.XLOOKUP(B93,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>834</v>
+        <v>785</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -40925,17 +41285,17 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>267</v>
+        <v>894</v>
       </c>
       <c r="C94" s="8" cm="1">
         <f t="array" ref="C94">_xlfn.XLOOKUP(B94,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>727</v>
+        <v>898</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>728</v>
+        <v>899</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -40944,17 +41304,17 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="C95" s="8" cm="1">
         <f t="array" ref="C95">_xlfn.XLOOKUP(B95,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -40963,17 +41323,17 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="C96" s="8" cm="1">
         <f t="array" ref="C96">_xlfn.XLOOKUP(B96,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -40982,17 +41342,17 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="C97" s="8" cm="1">
         <f t="array" ref="C97">_xlfn.XLOOKUP(B97,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -41001,17 +41361,17 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="C98" s="8" cm="1">
         <f t="array" ref="C98">_xlfn.XLOOKUP(B98,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -41020,17 +41380,17 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="C99" s="8" cm="1">
         <f t="array" ref="C99">_xlfn.XLOOKUP(B99,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -41039,617 +41399,1157 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C100" s="8" cm="1">
         <f t="array" ref="C100">_xlfn.XLOOKUP(B100,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>77</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="8">
+        <f>IF(B101&lt;&gt;0,ROW(B101)-1,"")</f>
+        <v>100</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="8" cm="1">
+        <f t="array" ref="C101">_xlfn.XLOOKUP(B101,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>97</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="8">
+        <f>IF(B102&lt;&gt;0,ROW(B102)-1,"")</f>
+        <v>101</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C102" s="8" cm="1">
+        <f t="array" ref="C102">_xlfn.XLOOKUP(B102,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>104</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="8">
+        <f>IF(B103&lt;&gt;0,ROW(B103)-1,"")</f>
+        <v>102</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C103" s="8" cm="1">
+        <f t="array" ref="C103">_xlfn.XLOOKUP(B103,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>104</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="8">
+        <f>IF(B104&lt;&gt;0,ROW(B104)-1,"")</f>
+        <v>103</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C104" s="8" cm="1">
+        <f t="array" ref="C104">_xlfn.XLOOKUP(B104,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>104</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="8">
+        <f>IF(B105&lt;&gt;0,ROW(B105)-1,"")</f>
+        <v>104</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C105" s="8" cm="1">
+        <f t="array" ref="C105">_xlfn.XLOOKUP(B105,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>104</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="8">
+        <f>IF(B106&lt;&gt;0,ROW(B106)-1,"")</f>
+        <v>105</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C106" s="8" cm="1">
+        <f t="array" ref="C106">_xlfn.XLOOKUP(B106,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>104</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="8">
+        <f>IF(B107&lt;&gt;0,ROW(B107)-1,"")</f>
+        <v>106</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C107" s="8" cm="1">
+        <f t="array" ref="C107">_xlfn.XLOOKUP(B107,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>104</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="8">
+        <f>IF(B108&lt;&gt;0,ROW(B108)-1,"")</f>
+        <v>107</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C108" s="8" cm="1">
+        <f t="array" ref="C108">_xlfn.XLOOKUP(B108,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>104</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="8">
+        <f>IF(B109&lt;&gt;0,ROW(B109)-1,"")</f>
+        <v>108</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C109" s="8" cm="1">
+        <f t="array" ref="C109">_xlfn.XLOOKUP(B109,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>104</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="8">
+        <f>IF(B110&lt;&gt;0,ROW(B110)-1,"")</f>
+        <v>109</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C110" s="8" cm="1">
+        <f t="array" ref="C110">_xlfn.XLOOKUP(B110,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>104</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="8">
+        <f>IF(B111&lt;&gt;0,ROW(B111)-1,"")</f>
+        <v>110</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C111" s="8" cm="1">
+        <f t="array" ref="C111">_xlfn.XLOOKUP(B111,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>104</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="8">
+        <f>IF(B112&lt;&gt;0,ROW(B112)-1,"")</f>
+        <v>111</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C112" s="8" cm="1">
+        <f t="array" ref="C112">_xlfn.XLOOKUP(B112,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>104</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="8">
+        <f>IF(B113&lt;&gt;0,ROW(B113)-1,"")</f>
+        <v>112</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C113" s="8" cm="1">
+        <f t="array" ref="C113">_xlfn.XLOOKUP(B113,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>104</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="8">
+        <f>IF(B114&lt;&gt;0,ROW(B114)-1,"")</f>
+        <v>113</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C114" s="8" cm="1">
+        <f t="array" ref="C114">_xlfn.XLOOKUP(B114,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>104</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="8">
+        <f>IF(B115&lt;&gt;0,ROW(B115)-1,"")</f>
+        <v>114</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C115" s="8" cm="1">
+        <f t="array" ref="C115">_xlfn.XLOOKUP(B115,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>106</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="8">
+        <f>IF(B116&lt;&gt;0,ROW(B116)-1,"")</f>
+        <v>115</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116" s="8" cm="1">
+        <f t="array" ref="C116">_xlfn.XLOOKUP(B116,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>106</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="8">
+        <f>IF(B117&lt;&gt;0,ROW(B117)-1,"")</f>
+        <v>116</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C117" s="8" cm="1">
+        <f t="array" ref="C117">_xlfn.XLOOKUP(B117,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>106</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="8">
+        <f>IF(B118&lt;&gt;0,ROW(B118)-1,"")</f>
+        <v>117</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C118" s="8" cm="1">
+        <f t="array" ref="C118">_xlfn.XLOOKUP(B118,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>113</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="8">
+        <f>IF(B119&lt;&gt;0,ROW(B119)-1,"")</f>
+        <v>118</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="C119" s="8" cm="1">
+        <f t="array" ref="C119">_xlfn.XLOOKUP(B119,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>118</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="8">
+        <f>IF(B120&lt;&gt;0,ROW(B120)-1,"")</f>
+        <v>119</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="C120" s="8" cm="1">
+        <f t="array" ref="C120">_xlfn.XLOOKUP(B120,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>130</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="8">
+        <f>IF(B121&lt;&gt;0,ROW(B121)-1,"")</f>
+        <v>120</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="C121" s="8" cm="1">
+        <f t="array" ref="C121">_xlfn.XLOOKUP(B121,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>137</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="8">
+        <f>IF(B122&lt;&gt;0,ROW(B122)-1,"")</f>
+        <v>121</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="C122" s="8" cm="1">
+        <f t="array" ref="C122">_xlfn.XLOOKUP(B122,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>137</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="8">
+        <f>IF(B123&lt;&gt;0,ROW(B123)-1,"")</f>
+        <v>122</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="C123" s="8" cm="1">
+        <f t="array" ref="C123">_xlfn.XLOOKUP(B123,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>137</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="8">
+        <f>IF(B124&lt;&gt;0,ROW(B124)-1,"")</f>
+        <v>123</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C124" s="8" cm="1">
+        <f t="array" ref="C124">_xlfn.XLOOKUP(B124,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>140</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="8">
+        <f>IF(B125&lt;&gt;0,ROW(B125)-1,"")</f>
+        <v>124</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="C125" s="8" cm="1">
+        <f t="array" ref="C125">_xlfn.XLOOKUP(B125,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>146</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="8">
+        <f>IF(B126&lt;&gt;0,ROW(B126)-1,"")</f>
+        <v>125</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C126" s="8" cm="1">
+        <f t="array" ref="C126">_xlfn.XLOOKUP(B126,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>148</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="8">
+        <f>IF(B127&lt;&gt;0,ROW(B127)-1,"")</f>
+        <v>126</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C127" s="8" cm="1">
+        <f t="array" ref="C127">_xlfn.XLOOKUP(B127,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>148</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="8">
+        <f>IF(B128&lt;&gt;0,ROW(B128)-1,"")</f>
+        <v>127</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C128" s="8" cm="1">
+        <f t="array" ref="C128">_xlfn.XLOOKUP(B128,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>148</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="8">
+        <f>IF(B129&lt;&gt;0,ROW(B129)-1,"")</f>
+        <v>128</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="8" cm="1">
+        <f t="array" ref="C129">_xlfn.XLOOKUP(B129,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>151</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="8">
+        <f>IF(B130&lt;&gt;0,ROW(B130)-1,"")</f>
+        <v>129</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="8" cm="1">
+        <f t="array" ref="C130">_xlfn.XLOOKUP(B130,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>151</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="8">
+        <f>IF(B131&lt;&gt;0,ROW(B131)-1,"")</f>
+        <v>130</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="8" cm="1">
+        <f t="array" ref="C131">_xlfn.XLOOKUP(B131,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>151</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="8">
+        <f>IF(B132&lt;&gt;0,ROW(B132)-1,"")</f>
+        <v>131</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="8" cm="1">
+        <f t="array" ref="C132">_xlfn.XLOOKUP(B132,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>151</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="8">
+        <f>IF(B133&lt;&gt;0,ROW(B133)-1,"")</f>
+        <v>132</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="8" cm="1">
+        <f t="array" ref="C133">_xlfn.XLOOKUP(B133,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>151</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="8">
+        <f>IF(B134&lt;&gt;0,ROW(B134)-1,"")</f>
+        <v>133</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="8" cm="1">
+        <f t="array" ref="C134">_xlfn.XLOOKUP(B134,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>151</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="8">
+        <f>IF(B135&lt;&gt;0,ROW(B135)-1,"")</f>
+        <v>134</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="8" cm="1">
+        <f t="array" ref="C135">_xlfn.XLOOKUP(B135,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>151</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="8">
+        <f>IF(B136&lt;&gt;0,ROW(B136)-1,"")</f>
+        <v>135</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="8" cm="1">
+        <f t="array" ref="C136">_xlfn.XLOOKUP(B136,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>151</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="8">
+        <f>IF(B137&lt;&gt;0,ROW(B137)-1,"")</f>
+        <v>136</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="8" cm="1">
+        <f t="array" ref="C137">_xlfn.XLOOKUP(B137,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>151</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="8">
+        <f>IF(B138&lt;&gt;0,ROW(B138)-1,"")</f>
+        <v>137</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="C138" s="8" cm="1">
+        <f t="array" ref="C138">_xlfn.XLOOKUP(B138,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>154</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="8">
+        <f>IF(B139&lt;&gt;0,ROW(B139)-1,"")</f>
+        <v>138</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="C139" s="8" cm="1">
+        <f t="array" ref="C139">_xlfn.XLOOKUP(B139,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>166</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="8">
+        <f>IF(B140&lt;&gt;0,ROW(B140)-1,"")</f>
+        <v>139</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="C140" s="8" cm="1">
+        <f t="array" ref="C140">_xlfn.XLOOKUP(B140,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>166</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="8">
+        <f>IF(B141&lt;&gt;0,ROW(B141)-1,"")</f>
+        <v>140</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C141" s="8" cm="1">
+        <f t="array" ref="C141">_xlfn.XLOOKUP(B141,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>189</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="8">
+        <f>IF(B142&lt;&gt;0,ROW(B142)-1,"")</f>
+        <v>141</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C142" s="8" cm="1">
+        <f t="array" ref="C142">_xlfn.XLOOKUP(B142,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>189</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="8">
+        <f>IF(B143&lt;&gt;0,ROW(B143)-1,"")</f>
+        <v>142</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C143" s="8" cm="1">
+        <f t="array" ref="C143">_xlfn.XLOOKUP(B143,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>189</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="8">
+        <f>IF(B144&lt;&gt;0,ROW(B144)-1,"")</f>
+        <v>143</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C144" s="8" cm="1">
+        <f t="array" ref="C144">_xlfn.XLOOKUP(B144,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>189</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="8">
+        <f>IF(B145&lt;&gt;0,ROW(B145)-1,"")</f>
+        <v>144</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C145" s="8" cm="1">
+        <f t="array" ref="C145">_xlfn.XLOOKUP(B145,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>189</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="8">
+        <f>IF(B146&lt;&gt;0,ROW(B146)-1,"")</f>
+        <v>145</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C146" s="8" cm="1">
+        <f t="array" ref="C146">_xlfn.XLOOKUP(B146,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>189</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="8">
+        <f>IF(B147&lt;&gt;0,ROW(B147)-1,"")</f>
+        <v>146</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C147" s="8" cm="1">
+        <f t="array" ref="C147">_xlfn.XLOOKUP(B147,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>189</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="8">
+        <f>IF(B148&lt;&gt;0,ROW(B148)-1,"")</f>
+        <v>147</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C148" s="8" cm="1">
+        <f t="array" ref="C148">_xlfn.XLOOKUP(B148,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>189</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="8">
+        <f>IF(B149&lt;&gt;0,ROW(B149)-1,"")</f>
+        <v>148</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C149" s="8" cm="1">
+        <f t="array" ref="C149">_xlfn.XLOOKUP(B149,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>189</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="8">
+        <f>IF(B150&lt;&gt;0,ROW(B150)-1,"")</f>
+        <v>149</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="C150" s="8" cm="1">
+        <f t="array" ref="C150">_xlfn.XLOOKUP(B150,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>179</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="8">
+        <f>IF(B151&lt;&gt;0,ROW(B151)-1,"")</f>
+        <v>150</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="C151" s="8" cm="1">
+        <f t="array" ref="C151">_xlfn.XLOOKUP(B151,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>179</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="8">
+        <f>IF(B152&lt;&gt;0,ROW(B152)-1,"")</f>
+        <v>151</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="C152" s="8" cm="1">
+        <f t="array" ref="C152">_xlfn.XLOOKUP(B152,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>179</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="8">
+        <f>IF(B153&lt;&gt;0,ROW(B153)-1,"")</f>
+        <v>152</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="C153" s="8" cm="1">
+        <f t="array" ref="C153">_xlfn.XLOOKUP(B153,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>179</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="8">
+        <f>IF(B154&lt;&gt;0,ROW(B154)-1,"")</f>
+        <v>153</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C154" s="8" cm="1">
+        <f t="array" ref="C154">_xlfn.XLOOKUP(B154,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
         <v>188</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D154" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="8">
+        <f>IF(B155&lt;&gt;0,ROW(B155)-1,"")</f>
+        <v>154</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C155" s="8" cm="1">
+        <f t="array" ref="C155">_xlfn.XLOOKUP(B155,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>188</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="8">
+        <f>IF(B156&lt;&gt;0,ROW(B156)-1,"")</f>
+        <v>155</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C156" s="8" cm="1">
+        <f t="array" ref="C156">_xlfn.XLOOKUP(B156,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>188</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="8">
+        <f>IF(B157&lt;&gt;0,ROW(B157)-1,"")</f>
+        <v>156</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C157" s="8" cm="1">
+        <f t="array" ref="C157">_xlfn.XLOOKUP(B157,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>188</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="8">
+        <f>IF(B158&lt;&gt;0,ROW(B158)-1,"")</f>
+        <v>157</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C158" s="8" cm="1">
+        <f t="array" ref="C158">_xlfn.XLOOKUP(B158,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>188</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="8">
+        <f>IF(B159&lt;&gt;0,ROW(B159)-1,"")</f>
+        <v>158</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C159" s="8" cm="1">
+        <f t="array" ref="C159">_xlfn.XLOOKUP(B159,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>188</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="8">
+        <f>IF(B160&lt;&gt;0,ROW(B160)-1,"")</f>
+        <v>159</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C160" s="8" cm="1">
+        <f t="array" ref="C160">_xlfn.XLOOKUP(B160,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
+        <v>188</v>
+      </c>
+      <c r="D160" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E160" s="9" t="s">
         <v>730</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="str">
-        <f>IF(B101&lt;&gt;0,ROW(B101)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C101" s="8" t="str" cm="1">
-        <f t="array" ref="C101">_xlfn.XLOOKUP(B101,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="8" t="str">
-        <f>IF(B102&lt;&gt;0,ROW(B102)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C102" s="8" t="str" cm="1">
-        <f t="array" ref="C102">_xlfn.XLOOKUP(B102,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="str">
-        <f>IF(B103&lt;&gt;0,ROW(B103)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C103" s="8" t="str" cm="1">
-        <f t="array" ref="C103">_xlfn.XLOOKUP(B103,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="str">
-        <f>IF(B104&lt;&gt;0,ROW(B104)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C104" s="8" t="str" cm="1">
-        <f t="array" ref="C104">_xlfn.XLOOKUP(B104,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="str">
-        <f>IF(B105&lt;&gt;0,ROW(B105)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C105" s="8" t="str" cm="1">
-        <f t="array" ref="C105">_xlfn.XLOOKUP(B105,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="str">
-        <f>IF(B106&lt;&gt;0,ROW(B106)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C106" s="8" t="str" cm="1">
-        <f t="array" ref="C106">_xlfn.XLOOKUP(B106,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="str">
-        <f>IF(B107&lt;&gt;0,ROW(B107)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C107" s="8" t="str" cm="1">
-        <f t="array" ref="C107">_xlfn.XLOOKUP(B107,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="str">
-        <f>IF(B108&lt;&gt;0,ROW(B108)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C108" s="8" t="str" cm="1">
-        <f t="array" ref="C108">_xlfn.XLOOKUP(B108,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="8" t="str">
-        <f>IF(B109&lt;&gt;0,ROW(B109)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C109" s="8" t="str" cm="1">
-        <f t="array" ref="C109">_xlfn.XLOOKUP(B109,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="8" t="str">
-        <f>IF(B110&lt;&gt;0,ROW(B110)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C110" s="8" t="str" cm="1">
-        <f t="array" ref="C110">_xlfn.XLOOKUP(B110,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="8" t="str">
-        <f>IF(B111&lt;&gt;0,ROW(B111)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C111" s="8" t="str" cm="1">
-        <f t="array" ref="C111">_xlfn.XLOOKUP(B111,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="8" t="str">
-        <f>IF(B112&lt;&gt;0,ROW(B112)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C112" s="8" t="str" cm="1">
-        <f t="array" ref="C112">_xlfn.XLOOKUP(B112,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="8" t="str">
-        <f>IF(B113&lt;&gt;0,ROW(B113)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C113" s="8" t="str" cm="1">
-        <f t="array" ref="C113">_xlfn.XLOOKUP(B113,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="8" t="str">
-        <f>IF(B114&lt;&gt;0,ROW(B114)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C114" s="8" t="str" cm="1">
-        <f t="array" ref="C114">_xlfn.XLOOKUP(B114,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="str">
-        <f>IF(B115&lt;&gt;0,ROW(B115)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C115" s="8" t="str" cm="1">
-        <f t="array" ref="C115">_xlfn.XLOOKUP(B115,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="8" t="str">
-        <f>IF(B116&lt;&gt;0,ROW(B116)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C116" s="8" t="str" cm="1">
-        <f t="array" ref="C116">_xlfn.XLOOKUP(B116,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="8" t="str">
-        <f>IF(B117&lt;&gt;0,ROW(B117)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C117" s="8" t="str" cm="1">
-        <f t="array" ref="C117">_xlfn.XLOOKUP(B117,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="8" t="str">
-        <f>IF(B118&lt;&gt;0,ROW(B118)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C118" s="8" t="str" cm="1">
-        <f t="array" ref="C118">_xlfn.XLOOKUP(B118,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="8" t="str">
-        <f>IF(B119&lt;&gt;0,ROW(B119)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C119" s="8" t="str" cm="1">
-        <f t="array" ref="C119">_xlfn.XLOOKUP(B119,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="8" t="str">
-        <f>IF(B120&lt;&gt;0,ROW(B120)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C120" s="8" t="str" cm="1">
-        <f t="array" ref="C120">_xlfn.XLOOKUP(B120,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="str">
-        <f>IF(B121&lt;&gt;0,ROW(B121)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C121" s="8" t="str" cm="1">
-        <f t="array" ref="C121">_xlfn.XLOOKUP(B121,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="8" t="str">
-        <f>IF(B122&lt;&gt;0,ROW(B122)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C122" s="8" t="str" cm="1">
-        <f t="array" ref="C122">_xlfn.XLOOKUP(B122,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="8" t="str">
-        <f>IF(B123&lt;&gt;0,ROW(B123)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C123" s="8" t="str" cm="1">
-        <f t="array" ref="C123">_xlfn.XLOOKUP(B123,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="8" t="str">
-        <f>IF(B124&lt;&gt;0,ROW(B124)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C124" s="8" t="str" cm="1">
-        <f t="array" ref="C124">_xlfn.XLOOKUP(B124,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="8" t="str">
-        <f>IF(B125&lt;&gt;0,ROW(B125)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C125" s="8" t="str" cm="1">
-        <f t="array" ref="C125">_xlfn.XLOOKUP(B125,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="8" t="str">
-        <f>IF(B126&lt;&gt;0,ROW(B126)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C126" s="8" t="str" cm="1">
-        <f t="array" ref="C126">_xlfn.XLOOKUP(B126,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="8" t="str">
-        <f>IF(B127&lt;&gt;0,ROW(B127)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C127" s="8" t="str" cm="1">
-        <f t="array" ref="C127">_xlfn.XLOOKUP(B127,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="8" t="str">
-        <f>IF(B128&lt;&gt;0,ROW(B128)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C128" s="8" t="str" cm="1">
-        <f t="array" ref="C128">_xlfn.XLOOKUP(B128,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="8" t="str">
-        <f>IF(B129&lt;&gt;0,ROW(B129)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C129" s="8" t="str" cm="1">
-        <f t="array" ref="C129">_xlfn.XLOOKUP(B129,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="8" t="str">
-        <f>IF(B130&lt;&gt;0,ROW(B130)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C130" s="8" t="str" cm="1">
-        <f t="array" ref="C130">_xlfn.XLOOKUP(B130,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="8" t="str">
-        <f>IF(B131&lt;&gt;0,ROW(B131)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C131" s="8" t="str" cm="1">
-        <f t="array" ref="C131">_xlfn.XLOOKUP(B131,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="8" t="str">
-        <f>IF(B132&lt;&gt;0,ROW(B132)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C132" s="8" t="str" cm="1">
-        <f t="array" ref="C132">_xlfn.XLOOKUP(B132,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="str">
-        <f>IF(B133&lt;&gt;0,ROW(B133)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C133" s="8" t="str" cm="1">
-        <f t="array" ref="C133">_xlfn.XLOOKUP(B133,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="8" t="str">
-        <f>IF(B134&lt;&gt;0,ROW(B134)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C134" s="8" t="str" cm="1">
-        <f t="array" ref="C134">_xlfn.XLOOKUP(B134,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="str">
-        <f>IF(B135&lt;&gt;0,ROW(B135)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C135" s="8" t="str" cm="1">
-        <f t="array" ref="C135">_xlfn.XLOOKUP(B135,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="8" t="str">
-        <f>IF(B136&lt;&gt;0,ROW(B136)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C136" s="8" t="str" cm="1">
-        <f t="array" ref="C136">_xlfn.XLOOKUP(B136,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="8" t="str">
-        <f>IF(B137&lt;&gt;0,ROW(B137)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C137" s="8" t="str" cm="1">
-        <f t="array" ref="C137">_xlfn.XLOOKUP(B137,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="8" t="str">
-        <f>IF(B138&lt;&gt;0,ROW(B138)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C138" s="8" t="str" cm="1">
-        <f t="array" ref="C138">_xlfn.XLOOKUP(B138,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="str">
-        <f>IF(B139&lt;&gt;0,ROW(B139)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C139" s="8" t="str" cm="1">
-        <f t="array" ref="C139">_xlfn.XLOOKUP(B139,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="8" t="str">
-        <f>IF(B140&lt;&gt;0,ROW(B140)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C140" s="8" t="str" cm="1">
-        <f t="array" ref="C140">_xlfn.XLOOKUP(B140,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="8" t="str">
-        <f>IF(B141&lt;&gt;0,ROW(B141)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C141" s="8" t="str" cm="1">
-        <f t="array" ref="C141">_xlfn.XLOOKUP(B141,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="8" t="str">
-        <f>IF(B142&lt;&gt;0,ROW(B142)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C142" s="8" t="str" cm="1">
-        <f t="array" ref="C142">_xlfn.XLOOKUP(B142,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="str">
-        <f>IF(B143&lt;&gt;0,ROW(B143)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C143" s="8" t="str" cm="1">
-        <f t="array" ref="C143">_xlfn.XLOOKUP(B143,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="8" t="str">
-        <f>IF(B144&lt;&gt;0,ROW(B144)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C144" s="8" t="str" cm="1">
-        <f t="array" ref="C144">_xlfn.XLOOKUP(B144,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="str">
-        <f>IF(B145&lt;&gt;0,ROW(B145)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C145" s="8" t="str" cm="1">
-        <f t="array" ref="C145">_xlfn.XLOOKUP(B145,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="str">
-        <f>IF(B146&lt;&gt;0,ROW(B146)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C146" s="8" t="str" cm="1">
-        <f t="array" ref="C146">_xlfn.XLOOKUP(B146,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="8" t="str">
-        <f>IF(B147&lt;&gt;0,ROW(B147)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C147" s="8" t="str" cm="1">
-        <f t="array" ref="C147">_xlfn.XLOOKUP(B147,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="8" t="str">
-        <f>IF(B148&lt;&gt;0,ROW(B148)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C148" s="8" t="str" cm="1">
-        <f t="array" ref="C148">_xlfn.XLOOKUP(B148,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="8" t="str">
-        <f>IF(B149&lt;&gt;0,ROW(B149)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C149" s="8" t="str" cm="1">
-        <f t="array" ref="C149">_xlfn.XLOOKUP(B149,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="8" t="str">
-        <f>IF(B150&lt;&gt;0,ROW(B150)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C150" s="8" t="str" cm="1">
-        <f t="array" ref="C150">_xlfn.XLOOKUP(B150,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="8" t="str">
-        <f>IF(B151&lt;&gt;0,ROW(B151)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C151" s="8" t="str" cm="1">
-        <f t="array" ref="C151">_xlfn.XLOOKUP(B151,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="8" t="str">
-        <f>IF(B152&lt;&gt;0,ROW(B152)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C152" s="8" t="str" cm="1">
-        <f t="array" ref="C152">_xlfn.XLOOKUP(B152,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="str">
-        <f>IF(B153&lt;&gt;0,ROW(B153)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C153" s="8" t="str" cm="1">
-        <f t="array" ref="C153">_xlfn.XLOOKUP(B153,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="str">
-        <f>IF(B154&lt;&gt;0,ROW(B154)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C154" s="8" t="str" cm="1">
-        <f t="array" ref="C154">_xlfn.XLOOKUP(B154,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="8" t="str">
-        <f>IF(B155&lt;&gt;0,ROW(B155)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C155" s="8" t="str" cm="1">
-        <f t="array" ref="C155">_xlfn.XLOOKUP(B155,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="8" t="str">
-        <f>IF(B156&lt;&gt;0,ROW(B156)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C156" s="8" t="str" cm="1">
-        <f t="array" ref="C156">_xlfn.XLOOKUP(B156,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="8" t="str">
-        <f>IF(B157&lt;&gt;0,ROW(B157)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C157" s="8" t="str" cm="1">
-        <f t="array" ref="C157">_xlfn.XLOOKUP(B157,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="8" t="str">
-        <f>IF(B158&lt;&gt;0,ROW(B158)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C158" s="8" t="str" cm="1">
-        <f t="array" ref="C158">_xlfn.XLOOKUP(B158,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="8" t="str">
-        <f>IF(B159&lt;&gt;0,ROW(B159)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C159" s="8" t="str" cm="1">
-        <f t="array" ref="C159">_xlfn.XLOOKUP(B159,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="8" t="str">
-        <f>IF(B160&lt;&gt;0,ROW(B160)-1,"")</f>
-        <v/>
-      </c>
-      <c r="C160" s="8" t="str" cm="1">
-        <f t="array" ref="C160">_xlfn.XLOOKUP(B160,Tabela1[[#All],[Company Name]],Companies!A:A,"")</f>
-        <v/>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -45068,10 +45968,14 @@
       <sortCondition ref="B1:B501"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D102:E161">
+    <sortCondition ref="D102:D161"/>
+  </sortState>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45195,10 +46099,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACFEA2C-50F2-4DAF-809B-92B337E99259}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -45269,6 +46173,16 @@
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>975</v>
       </c>
     </row>
   </sheetData>

--- a/Dim/FictionalCompanyNames_ v0-01-000.xlsx
+++ b/Dim/FictionalCompanyNames_ v0-01-000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Datasets\Dim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A183B600-4490-49DA-8FE6-D7F8AA499CE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD49A18-AAC3-4946-B734-BC9815865B2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="11520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="11520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Companies" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="1028">
   <si>
     <t>Company Name</t>
   </si>
@@ -3142,6 +3142,9 @@
   </si>
   <si>
     <t>Insect Repellent</t>
+  </si>
+  <si>
+    <t>Slogan para produtos e empresas?</t>
   </si>
 </sst>
 </file>
@@ -3847,7 +3850,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4012,7 +4015,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>282</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -39499,8 +39502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22D48B0-B0CC-4E38-A41F-865B8B65BB5E}">
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
@@ -39533,7 +39536,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
-        <f>IF(B2&lt;&gt;0,ROW(B2)-1,"")</f>
+        <f t="shared" ref="A2:A65" si="0">IF(B2&lt;&gt;0,ROW(B2)-1,"")</f>
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -39552,7 +39555,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
-        <f>IF(B3&lt;&gt;0,ROW(B3)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -39571,7 +39574,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
-        <f>IF(B4&lt;&gt;0,ROW(B4)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -39590,7 +39593,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
-        <f>IF(B5&lt;&gt;0,ROW(B5)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -39609,7 +39612,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
-        <f>IF(B6&lt;&gt;0,ROW(B6)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -39628,7 +39631,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
-        <f>IF(B7&lt;&gt;0,ROW(B7)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -39647,7 +39650,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
-        <f>IF(B8&lt;&gt;0,ROW(B8)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -39666,7 +39669,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
-        <f>IF(B9&lt;&gt;0,ROW(B9)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -39685,7 +39688,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
-        <f>IF(B10&lt;&gt;0,ROW(B10)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -39704,7 +39707,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <f>IF(B11&lt;&gt;0,ROW(B11)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -39723,7 +39726,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
-        <f>IF(B12&lt;&gt;0,ROW(B12)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -39742,7 +39745,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
-        <f>IF(B13&lt;&gt;0,ROW(B13)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -39761,7 +39764,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
-        <f>IF(B14&lt;&gt;0,ROW(B14)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -39780,7 +39783,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
-        <f>IF(B15&lt;&gt;0,ROW(B15)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -39799,7 +39802,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
-        <f>IF(B16&lt;&gt;0,ROW(B16)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -39818,7 +39821,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
-        <f>IF(B17&lt;&gt;0,ROW(B17)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -39837,7 +39840,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
-        <f>IF(B18&lt;&gt;0,ROW(B18)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -39856,7 +39859,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
-        <f>IF(B19&lt;&gt;0,ROW(B19)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -39875,7 +39878,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
-        <f>IF(B20&lt;&gt;0,ROW(B20)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -39894,7 +39897,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
-        <f>IF(B21&lt;&gt;0,ROW(B21)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -39913,7 +39916,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
-        <f>IF(B22&lt;&gt;0,ROW(B22)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -39932,7 +39935,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
-        <f>IF(B23&lt;&gt;0,ROW(B23)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -39951,7 +39954,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
-        <f>IF(B24&lt;&gt;0,ROW(B24)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -39970,7 +39973,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
-        <f>IF(B25&lt;&gt;0,ROW(B25)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -39989,7 +39992,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
-        <f>IF(B26&lt;&gt;0,ROW(B26)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -40008,7 +40011,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
-        <f>IF(B27&lt;&gt;0,ROW(B27)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -40027,7 +40030,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
-        <f>IF(B28&lt;&gt;0,ROW(B28)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -40046,7 +40049,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
-        <f>IF(B29&lt;&gt;0,ROW(B29)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -40065,7 +40068,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
-        <f>IF(B30&lt;&gt;0,ROW(B30)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -40084,7 +40087,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
-        <f>IF(B31&lt;&gt;0,ROW(B31)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -40103,7 +40106,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
-        <f>IF(B32&lt;&gt;0,ROW(B32)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -40122,7 +40125,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
-        <f>IF(B33&lt;&gt;0,ROW(B33)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -40141,7 +40144,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
-        <f>IF(B34&lt;&gt;0,ROW(B34)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -40160,7 +40163,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
-        <f>IF(B35&lt;&gt;0,ROW(B35)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -40179,7 +40182,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
-        <f>IF(B36&lt;&gt;0,ROW(B36)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -40198,7 +40201,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
-        <f>IF(B37&lt;&gt;0,ROW(B37)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -40217,7 +40220,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
-        <f>IF(B38&lt;&gt;0,ROW(B38)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -40236,7 +40239,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
-        <f>IF(B39&lt;&gt;0,ROW(B39)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -40255,7 +40258,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
-        <f>IF(B40&lt;&gt;0,ROW(B40)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -40274,7 +40277,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
-        <f>IF(B41&lt;&gt;0,ROW(B41)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -40293,7 +40296,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
-        <f>IF(B42&lt;&gt;0,ROW(B42)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -40312,7 +40315,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
-        <f>IF(B43&lt;&gt;0,ROW(B43)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -40331,7 +40334,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
-        <f>IF(B44&lt;&gt;0,ROW(B44)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -40350,7 +40353,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
-        <f>IF(B45&lt;&gt;0,ROW(B45)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -40369,7 +40372,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
-        <f>IF(B46&lt;&gt;0,ROW(B46)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -40388,7 +40391,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
-        <f>IF(B47&lt;&gt;0,ROW(B47)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -40407,7 +40410,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
-        <f>IF(B48&lt;&gt;0,ROW(B48)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -40426,7 +40429,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
-        <f>IF(B49&lt;&gt;0,ROW(B49)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -40445,7 +40448,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
-        <f>IF(B50&lt;&gt;0,ROW(B50)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -40464,7 +40467,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
-        <f>IF(B51&lt;&gt;0,ROW(B51)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -40483,7 +40486,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
-        <f>IF(B52&lt;&gt;0,ROW(B52)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -40502,7 +40505,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
-        <f>IF(B53&lt;&gt;0,ROW(B53)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -40521,7 +40524,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
-        <f>IF(B54&lt;&gt;0,ROW(B54)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -40540,7 +40543,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
-        <f>IF(B55&lt;&gt;0,ROW(B55)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -40559,7 +40562,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
-        <f>IF(B56&lt;&gt;0,ROW(B56)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -40578,7 +40581,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
-        <f>IF(B57&lt;&gt;0,ROW(B57)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -40597,7 +40600,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
-        <f>IF(B58&lt;&gt;0,ROW(B58)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -40616,7 +40619,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
-        <f>IF(B59&lt;&gt;0,ROW(B59)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -40635,7 +40638,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
-        <f>IF(B60&lt;&gt;0,ROW(B60)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -40654,7 +40657,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
-        <f>IF(B61&lt;&gt;0,ROW(B61)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -40673,7 +40676,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
-        <f>IF(B62&lt;&gt;0,ROW(B62)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -40692,7 +40695,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
-        <f>IF(B63&lt;&gt;0,ROW(B63)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -40711,7 +40714,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
-        <f>IF(B64&lt;&gt;0,ROW(B64)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -40730,7 +40733,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
-        <f>IF(B65&lt;&gt;0,ROW(B65)-1,"")</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -40749,7 +40752,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
-        <f>IF(B66&lt;&gt;0,ROW(B66)-1,"")</f>
+        <f t="shared" ref="A66:A129" si="1">IF(B66&lt;&gt;0,ROW(B66)-1,"")</f>
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -40768,7 +40771,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
-        <f>IF(B67&lt;&gt;0,ROW(B67)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -40787,7 +40790,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
-        <f>IF(B68&lt;&gt;0,ROW(B68)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -40806,7 +40809,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
-        <f>IF(B69&lt;&gt;0,ROW(B69)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -40825,7 +40828,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
-        <f>IF(B70&lt;&gt;0,ROW(B70)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -40844,7 +40847,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
-        <f>IF(B71&lt;&gt;0,ROW(B71)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -40863,7 +40866,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
-        <f>IF(B72&lt;&gt;0,ROW(B72)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -40882,7 +40885,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
-        <f>IF(B73&lt;&gt;0,ROW(B73)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -40901,7 +40904,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
-        <f>IF(B74&lt;&gt;0,ROW(B74)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -40920,7 +40923,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
-        <f>IF(B75&lt;&gt;0,ROW(B75)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -40939,7 +40942,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
-        <f>IF(B76&lt;&gt;0,ROW(B76)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -40958,7 +40961,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
-        <f>IF(B77&lt;&gt;0,ROW(B77)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -40977,7 +40980,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
-        <f>IF(B78&lt;&gt;0,ROW(B78)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -40996,7 +40999,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
-        <f>IF(B79&lt;&gt;0,ROW(B79)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -41015,7 +41018,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
-        <f>IF(B80&lt;&gt;0,ROW(B80)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -41034,7 +41037,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
-        <f>IF(B81&lt;&gt;0,ROW(B81)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -41053,7 +41056,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
-        <f>IF(B82&lt;&gt;0,ROW(B82)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
@@ -41072,7 +41075,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
-        <f>IF(B83&lt;&gt;0,ROW(B83)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
@@ -41091,7 +41094,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
-        <f>IF(B84&lt;&gt;0,ROW(B84)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
@@ -41110,7 +41113,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
-        <f>IF(B85&lt;&gt;0,ROW(B85)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
@@ -41129,7 +41132,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
-        <f>IF(B86&lt;&gt;0,ROW(B86)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
@@ -41148,7 +41151,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
-        <f>IF(B87&lt;&gt;0,ROW(B87)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
@@ -41167,7 +41170,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
-        <f>IF(B88&lt;&gt;0,ROW(B88)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
@@ -41186,7 +41189,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
-        <f>IF(B89&lt;&gt;0,ROW(B89)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
@@ -41205,7 +41208,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
-        <f>IF(B90&lt;&gt;0,ROW(B90)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -41224,7 +41227,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
-        <f>IF(B91&lt;&gt;0,ROW(B91)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -41243,7 +41246,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
-        <f>IF(B92&lt;&gt;0,ROW(B92)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
@@ -41262,7 +41265,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
-        <f>IF(B93&lt;&gt;0,ROW(B93)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -41281,7 +41284,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
-        <f>IF(B94&lt;&gt;0,ROW(B94)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
@@ -41300,7 +41303,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
-        <f>IF(B95&lt;&gt;0,ROW(B95)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -41319,7 +41322,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
-        <f>IF(B96&lt;&gt;0,ROW(B96)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
@@ -41338,7 +41341,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
-        <f>IF(B97&lt;&gt;0,ROW(B97)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
@@ -41357,7 +41360,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
-        <f>IF(B98&lt;&gt;0,ROW(B98)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
@@ -41376,7 +41379,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
-        <f>IF(B99&lt;&gt;0,ROW(B99)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
@@ -41395,7 +41398,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
-        <f>IF(B100&lt;&gt;0,ROW(B100)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
@@ -41414,7 +41417,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
-        <f>IF(B101&lt;&gt;0,ROW(B101)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -41433,7 +41436,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
-        <f>IF(B102&lt;&gt;0,ROW(B102)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
@@ -41452,7 +41455,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
-        <f>IF(B103&lt;&gt;0,ROW(B103)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -41471,7 +41474,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
-        <f>IF(B104&lt;&gt;0,ROW(B104)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -41490,7 +41493,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
-        <f>IF(B105&lt;&gt;0,ROW(B105)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" s="9" t="s">
@@ -41509,7 +41512,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
-        <f>IF(B106&lt;&gt;0,ROW(B106)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
@@ -41528,7 +41531,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
-        <f>IF(B107&lt;&gt;0,ROW(B107)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
@@ -41547,7 +41550,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
-        <f>IF(B108&lt;&gt;0,ROW(B108)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
@@ -41566,7 +41569,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
-        <f>IF(B109&lt;&gt;0,ROW(B109)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
@@ -41585,7 +41588,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
-        <f>IF(B110&lt;&gt;0,ROW(B110)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
@@ -41604,7 +41607,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
-        <f>IF(B111&lt;&gt;0,ROW(B111)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -41623,7 +41626,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
-        <f>IF(B112&lt;&gt;0,ROW(B112)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
@@ -41642,7 +41645,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
-        <f>IF(B113&lt;&gt;0,ROW(B113)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
@@ -41661,7 +41664,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
-        <f>IF(B114&lt;&gt;0,ROW(B114)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
@@ -41680,7 +41683,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
-        <f>IF(B115&lt;&gt;0,ROW(B115)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
@@ -41699,7 +41702,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
-        <f>IF(B116&lt;&gt;0,ROW(B116)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
@@ -41718,7 +41721,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
-        <f>IF(B117&lt;&gt;0,ROW(B117)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -41737,7 +41740,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
-        <f>IF(B118&lt;&gt;0,ROW(B118)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B118" s="9" t="s">
@@ -41756,7 +41759,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
-        <f>IF(B119&lt;&gt;0,ROW(B119)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -41775,7 +41778,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
-        <f>IF(B120&lt;&gt;0,ROW(B120)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
@@ -41794,7 +41797,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
-        <f>IF(B121&lt;&gt;0,ROW(B121)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -41813,7 +41816,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
-        <f>IF(B122&lt;&gt;0,ROW(B122)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
@@ -41832,7 +41835,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
-        <f>IF(B123&lt;&gt;0,ROW(B123)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
@@ -41851,7 +41854,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
-        <f>IF(B124&lt;&gt;0,ROW(B124)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
@@ -41870,7 +41873,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
-        <f>IF(B125&lt;&gt;0,ROW(B125)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
@@ -41889,7 +41892,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
-        <f>IF(B126&lt;&gt;0,ROW(B126)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
@@ -41908,7 +41911,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
-        <f>IF(B127&lt;&gt;0,ROW(B127)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
@@ -41927,7 +41930,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
-        <f>IF(B128&lt;&gt;0,ROW(B128)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
@@ -41946,7 +41949,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
-        <f>IF(B129&lt;&gt;0,ROW(B129)-1,"")</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
@@ -41965,7 +41968,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
-        <f>IF(B130&lt;&gt;0,ROW(B130)-1,"")</f>
+        <f t="shared" ref="A130:A193" si="2">IF(B130&lt;&gt;0,ROW(B130)-1,"")</f>
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
@@ -41984,7 +41987,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
-        <f>IF(B131&lt;&gt;0,ROW(B131)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="B131" s="9" t="s">
@@ -42003,7 +42006,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
-        <f>IF(B132&lt;&gt;0,ROW(B132)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B132" s="9" t="s">
@@ -42022,7 +42025,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
-        <f>IF(B133&lt;&gt;0,ROW(B133)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B133" s="9" t="s">
@@ -42041,7 +42044,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
-        <f>IF(B134&lt;&gt;0,ROW(B134)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
@@ -42060,7 +42063,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
-        <f>IF(B135&lt;&gt;0,ROW(B135)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -42079,7 +42082,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
-        <f>IF(B136&lt;&gt;0,ROW(B136)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B136" s="9" t="s">
@@ -42098,7 +42101,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
-        <f>IF(B137&lt;&gt;0,ROW(B137)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B137" s="9" t="s">
@@ -42117,7 +42120,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
-        <f>IF(B138&lt;&gt;0,ROW(B138)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B138" s="9" t="s">
@@ -42136,7 +42139,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
-        <f>IF(B139&lt;&gt;0,ROW(B139)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B139" s="9" t="s">
@@ -42155,7 +42158,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
-        <f>IF(B140&lt;&gt;0,ROW(B140)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B140" s="9" t="s">
@@ -42174,7 +42177,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
-        <f>IF(B141&lt;&gt;0,ROW(B141)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B141" s="9" t="s">
@@ -42193,7 +42196,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
-        <f>IF(B142&lt;&gt;0,ROW(B142)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B142" s="9" t="s">
@@ -42212,7 +42215,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
-        <f>IF(B143&lt;&gt;0,ROW(B143)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B143" s="9" t="s">
@@ -42231,7 +42234,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
-        <f>IF(B144&lt;&gt;0,ROW(B144)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B144" s="9" t="s">
@@ -42250,7 +42253,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
-        <f>IF(B145&lt;&gt;0,ROW(B145)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B145" s="9" t="s">
@@ -42269,7 +42272,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
-        <f>IF(B146&lt;&gt;0,ROW(B146)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B146" s="9" t="s">
@@ -42288,7 +42291,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
-        <f>IF(B147&lt;&gt;0,ROW(B147)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B147" s="9" t="s">
@@ -42307,7 +42310,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
-        <f>IF(B148&lt;&gt;0,ROW(B148)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B148" s="9" t="s">
@@ -42326,7 +42329,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
-        <f>IF(B149&lt;&gt;0,ROW(B149)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B149" s="9" t="s">
@@ -42345,7 +42348,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
-        <f>IF(B150&lt;&gt;0,ROW(B150)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B150" s="9" t="s">
@@ -42364,7 +42367,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
-        <f>IF(B151&lt;&gt;0,ROW(B151)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B151" s="9" t="s">
@@ -42383,7 +42386,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
-        <f>IF(B152&lt;&gt;0,ROW(B152)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B152" s="9" t="s">
@@ -42402,7 +42405,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
-        <f>IF(B153&lt;&gt;0,ROW(B153)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B153" s="9" t="s">
@@ -42421,7 +42424,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
-        <f>IF(B154&lt;&gt;0,ROW(B154)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B154" s="9" t="s">
@@ -42440,7 +42443,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
-        <f>IF(B155&lt;&gt;0,ROW(B155)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="B155" s="9" t="s">
@@ -42459,7 +42462,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
-        <f>IF(B156&lt;&gt;0,ROW(B156)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B156" s="9" t="s">
@@ -42478,7 +42481,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
-        <f>IF(B157&lt;&gt;0,ROW(B157)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B157" s="9" t="s">
@@ -42497,7 +42500,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
-        <f>IF(B158&lt;&gt;0,ROW(B158)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="B158" s="9" t="s">
@@ -42516,7 +42519,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
-        <f>IF(B159&lt;&gt;0,ROW(B159)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="B159" s="9" t="s">
@@ -42535,7 +42538,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
-        <f>IF(B160&lt;&gt;0,ROW(B160)-1,"")</f>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="B160" s="9" t="s">
@@ -42554,7 +42557,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="str">
-        <f>IF(B161&lt;&gt;0,ROW(B161)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C161" s="8" t="str" cm="1">
@@ -42564,7 +42567,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="str">
-        <f>IF(B162&lt;&gt;0,ROW(B162)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C162" s="8" t="str" cm="1">
@@ -42574,7 +42577,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="str">
-        <f>IF(B163&lt;&gt;0,ROW(B163)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C163" s="8" t="str" cm="1">
@@ -42584,7 +42587,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="str">
-        <f>IF(B164&lt;&gt;0,ROW(B164)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C164" s="8" t="str" cm="1">
@@ -42594,7 +42597,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="str">
-        <f>IF(B165&lt;&gt;0,ROW(B165)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C165" s="8" t="str" cm="1">
@@ -42604,7 +42607,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="str">
-        <f>IF(B166&lt;&gt;0,ROW(B166)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C166" s="8" t="str" cm="1">
@@ -42614,7 +42617,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="str">
-        <f>IF(B167&lt;&gt;0,ROW(B167)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C167" s="8" t="str" cm="1">
@@ -42624,7 +42627,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="str">
-        <f>IF(B168&lt;&gt;0,ROW(B168)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C168" s="8" t="str" cm="1">
@@ -42634,7 +42637,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="str">
-        <f>IF(B169&lt;&gt;0,ROW(B169)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C169" s="8" t="str" cm="1">
@@ -42644,7 +42647,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="str">
-        <f>IF(B170&lt;&gt;0,ROW(B170)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C170" s="8" t="str" cm="1">
@@ -42654,7 +42657,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="str">
-        <f>IF(B171&lt;&gt;0,ROW(B171)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C171" s="8" t="str" cm="1">
@@ -42664,7 +42667,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="str">
-        <f>IF(B172&lt;&gt;0,ROW(B172)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C172" s="8" t="str" cm="1">
@@ -42674,7 +42677,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="str">
-        <f>IF(B173&lt;&gt;0,ROW(B173)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C173" s="8" t="str" cm="1">
@@ -42684,7 +42687,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="str">
-        <f>IF(B174&lt;&gt;0,ROW(B174)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C174" s="8" t="str" cm="1">
@@ -42694,7 +42697,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="str">
-        <f>IF(B175&lt;&gt;0,ROW(B175)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C175" s="8" t="str" cm="1">
@@ -42704,7 +42707,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="str">
-        <f>IF(B176&lt;&gt;0,ROW(B176)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C176" s="8" t="str" cm="1">
@@ -42714,7 +42717,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="str">
-        <f>IF(B177&lt;&gt;0,ROW(B177)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C177" s="8" t="str" cm="1">
@@ -42724,7 +42727,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="str">
-        <f>IF(B178&lt;&gt;0,ROW(B178)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C178" s="8" t="str" cm="1">
@@ -42734,7 +42737,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="str">
-        <f>IF(B179&lt;&gt;0,ROW(B179)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C179" s="8" t="str" cm="1">
@@ -42744,7 +42747,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="str">
-        <f>IF(B180&lt;&gt;0,ROW(B180)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C180" s="8" t="str" cm="1">
@@ -42754,7 +42757,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="str">
-        <f>IF(B181&lt;&gt;0,ROW(B181)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C181" s="8" t="str" cm="1">
@@ -42764,7 +42767,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="str">
-        <f>IF(B182&lt;&gt;0,ROW(B182)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C182" s="8" t="str" cm="1">
@@ -42774,7 +42777,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="str">
-        <f>IF(B183&lt;&gt;0,ROW(B183)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C183" s="8" t="str" cm="1">
@@ -42784,7 +42787,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="str">
-        <f>IF(B184&lt;&gt;0,ROW(B184)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C184" s="8" t="str" cm="1">
@@ -42794,7 +42797,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="str">
-        <f>IF(B185&lt;&gt;0,ROW(B185)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C185" s="8" t="str" cm="1">
@@ -42804,7 +42807,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="str">
-        <f>IF(B186&lt;&gt;0,ROW(B186)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C186" s="8" t="str" cm="1">
@@ -42814,7 +42817,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="str">
-        <f>IF(B187&lt;&gt;0,ROW(B187)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C187" s="8" t="str" cm="1">
@@ -42824,7 +42827,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="str">
-        <f>IF(B188&lt;&gt;0,ROW(B188)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C188" s="8" t="str" cm="1">
@@ -42834,7 +42837,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="str">
-        <f>IF(B189&lt;&gt;0,ROW(B189)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C189" s="8" t="str" cm="1">
@@ -42844,7 +42847,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="str">
-        <f>IF(B190&lt;&gt;0,ROW(B190)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C190" s="8" t="str" cm="1">
@@ -42854,7 +42857,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="str">
-        <f>IF(B191&lt;&gt;0,ROW(B191)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C191" s="8" t="str" cm="1">
@@ -42864,7 +42867,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="str">
-        <f>IF(B192&lt;&gt;0,ROW(B192)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C192" s="8" t="str" cm="1">
@@ -42874,7 +42877,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="str">
-        <f>IF(B193&lt;&gt;0,ROW(B193)-1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C193" s="8" t="str" cm="1">
@@ -42884,7 +42887,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="str">
-        <f>IF(B194&lt;&gt;0,ROW(B194)-1,"")</f>
+        <f t="shared" ref="A194:A257" si="3">IF(B194&lt;&gt;0,ROW(B194)-1,"")</f>
         <v/>
       </c>
       <c r="C194" s="8" t="str" cm="1">
@@ -42894,7 +42897,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="str">
-        <f>IF(B195&lt;&gt;0,ROW(B195)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C195" s="8" t="str" cm="1">
@@ -42904,7 +42907,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="str">
-        <f>IF(B196&lt;&gt;0,ROW(B196)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C196" s="8" t="str" cm="1">
@@ -42914,7 +42917,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="str">
-        <f>IF(B197&lt;&gt;0,ROW(B197)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C197" s="8" t="str" cm="1">
@@ -42924,7 +42927,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="str">
-        <f>IF(B198&lt;&gt;0,ROW(B198)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C198" s="8" t="str" cm="1">
@@ -42934,7 +42937,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="str">
-        <f>IF(B199&lt;&gt;0,ROW(B199)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C199" s="8" t="str" cm="1">
@@ -42944,7 +42947,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="str">
-        <f>IF(B200&lt;&gt;0,ROW(B200)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C200" s="8" t="str" cm="1">
@@ -42954,7 +42957,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="str">
-        <f>IF(B201&lt;&gt;0,ROW(B201)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C201" s="8" t="str" cm="1">
@@ -42964,7 +42967,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="str">
-        <f>IF(B202&lt;&gt;0,ROW(B202)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C202" s="8" t="str" cm="1">
@@ -42974,7 +42977,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="str">
-        <f>IF(B203&lt;&gt;0,ROW(B203)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C203" s="8" t="str" cm="1">
@@ -42984,7 +42987,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="str">
-        <f>IF(B204&lt;&gt;0,ROW(B204)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C204" s="8" t="str" cm="1">
@@ -42994,7 +42997,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="str">
-        <f>IF(B205&lt;&gt;0,ROW(B205)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C205" s="8" t="str" cm="1">
@@ -43004,7 +43007,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="str">
-        <f>IF(B206&lt;&gt;0,ROW(B206)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C206" s="8" t="str" cm="1">
@@ -43014,7 +43017,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="str">
-        <f>IF(B207&lt;&gt;0,ROW(B207)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C207" s="8" t="str" cm="1">
@@ -43024,7 +43027,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="str">
-        <f>IF(B208&lt;&gt;0,ROW(B208)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C208" s="8" t="str" cm="1">
@@ -43034,7 +43037,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="str">
-        <f>IF(B209&lt;&gt;0,ROW(B209)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C209" s="8" t="str" cm="1">
@@ -43044,7 +43047,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="str">
-        <f>IF(B210&lt;&gt;0,ROW(B210)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C210" s="8" t="str" cm="1">
@@ -43054,7 +43057,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="str">
-        <f>IF(B211&lt;&gt;0,ROW(B211)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C211" s="8" t="str" cm="1">
@@ -43064,7 +43067,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="str">
-        <f>IF(B212&lt;&gt;0,ROW(B212)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C212" s="8" t="str" cm="1">
@@ -43074,7 +43077,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="str">
-        <f>IF(B213&lt;&gt;0,ROW(B213)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C213" s="8" t="str" cm="1">
@@ -43084,7 +43087,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="str">
-        <f>IF(B214&lt;&gt;0,ROW(B214)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C214" s="8" t="str" cm="1">
@@ -43094,7 +43097,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="str">
-        <f>IF(B215&lt;&gt;0,ROW(B215)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C215" s="8" t="str" cm="1">
@@ -43104,7 +43107,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="str">
-        <f>IF(B216&lt;&gt;0,ROW(B216)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C216" s="8" t="str" cm="1">
@@ -43114,7 +43117,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="str">
-        <f>IF(B217&lt;&gt;0,ROW(B217)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C217" s="8" t="str" cm="1">
@@ -43124,7 +43127,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="str">
-        <f>IF(B218&lt;&gt;0,ROW(B218)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C218" s="8" t="str" cm="1">
@@ -43134,7 +43137,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="str">
-        <f>IF(B219&lt;&gt;0,ROW(B219)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C219" s="8" t="str" cm="1">
@@ -43144,7 +43147,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="str">
-        <f>IF(B220&lt;&gt;0,ROW(B220)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C220" s="8" t="str" cm="1">
@@ -43154,7 +43157,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="str">
-        <f>IF(B221&lt;&gt;0,ROW(B221)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C221" s="8" t="str" cm="1">
@@ -43164,7 +43167,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="str">
-        <f>IF(B222&lt;&gt;0,ROW(B222)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C222" s="8" t="str" cm="1">
@@ -43174,7 +43177,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="str">
-        <f>IF(B223&lt;&gt;0,ROW(B223)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C223" s="8" t="str" cm="1">
@@ -43184,7 +43187,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="str">
-        <f>IF(B224&lt;&gt;0,ROW(B224)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C224" s="8" t="str" cm="1">
@@ -43194,7 +43197,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="str">
-        <f>IF(B225&lt;&gt;0,ROW(B225)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C225" s="8" t="str" cm="1">
@@ -43204,7 +43207,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="str">
-        <f>IF(B226&lt;&gt;0,ROW(B226)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C226" s="8" t="str" cm="1">
@@ -43214,7 +43217,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="str">
-        <f>IF(B227&lt;&gt;0,ROW(B227)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C227" s="8" t="str" cm="1">
@@ -43224,7 +43227,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="str">
-        <f>IF(B228&lt;&gt;0,ROW(B228)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C228" s="8" t="str" cm="1">
@@ -43234,7 +43237,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="str">
-        <f>IF(B229&lt;&gt;0,ROW(B229)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C229" s="8" t="str" cm="1">
@@ -43244,7 +43247,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="str">
-        <f>IF(B230&lt;&gt;0,ROW(B230)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C230" s="8" t="str" cm="1">
@@ -43254,7 +43257,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="str">
-        <f>IF(B231&lt;&gt;0,ROW(B231)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C231" s="8" t="str" cm="1">
@@ -43264,7 +43267,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="str">
-        <f>IF(B232&lt;&gt;0,ROW(B232)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C232" s="8" t="str" cm="1">
@@ -43274,7 +43277,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="str">
-        <f>IF(B233&lt;&gt;0,ROW(B233)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C233" s="8" t="str" cm="1">
@@ -43284,7 +43287,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="str">
-        <f>IF(B234&lt;&gt;0,ROW(B234)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C234" s="8" t="str" cm="1">
@@ -43294,7 +43297,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="str">
-        <f>IF(B235&lt;&gt;0,ROW(B235)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C235" s="8" t="str" cm="1">
@@ -43304,7 +43307,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="str">
-        <f>IF(B236&lt;&gt;0,ROW(B236)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C236" s="8" t="str" cm="1">
@@ -43314,7 +43317,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="str">
-        <f>IF(B237&lt;&gt;0,ROW(B237)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C237" s="8" t="str" cm="1">
@@ -43324,7 +43327,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="str">
-        <f>IF(B238&lt;&gt;0,ROW(B238)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C238" s="8" t="str" cm="1">
@@ -43334,7 +43337,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="str">
-        <f>IF(B239&lt;&gt;0,ROW(B239)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C239" s="8" t="str" cm="1">
@@ -43344,7 +43347,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="str">
-        <f>IF(B240&lt;&gt;0,ROW(B240)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C240" s="8" t="str" cm="1">
@@ -43354,7 +43357,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="str">
-        <f>IF(B241&lt;&gt;0,ROW(B241)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C241" s="8" t="str" cm="1">
@@ -43364,7 +43367,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="str">
-        <f>IF(B242&lt;&gt;0,ROW(B242)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C242" s="8" t="str" cm="1">
@@ -43374,7 +43377,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="str">
-        <f>IF(B243&lt;&gt;0,ROW(B243)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C243" s="8" t="str" cm="1">
@@ -43384,7 +43387,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="str">
-        <f>IF(B244&lt;&gt;0,ROW(B244)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C244" s="8" t="str" cm="1">
@@ -43394,7 +43397,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="str">
-        <f>IF(B245&lt;&gt;0,ROW(B245)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C245" s="8" t="str" cm="1">
@@ -43404,7 +43407,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="str">
-        <f>IF(B246&lt;&gt;0,ROW(B246)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C246" s="8" t="str" cm="1">
@@ -43414,7 +43417,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="8" t="str">
-        <f>IF(B247&lt;&gt;0,ROW(B247)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C247" s="8" t="str" cm="1">
@@ -43424,7 +43427,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="str">
-        <f>IF(B248&lt;&gt;0,ROW(B248)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C248" s="8" t="str" cm="1">
@@ -43434,7 +43437,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="str">
-        <f>IF(B249&lt;&gt;0,ROW(B249)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C249" s="8" t="str" cm="1">
@@ -43444,7 +43447,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="str">
-        <f>IF(B250&lt;&gt;0,ROW(B250)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C250" s="8" t="str" cm="1">
@@ -43454,7 +43457,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="8" t="str">
-        <f>IF(B251&lt;&gt;0,ROW(B251)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C251" s="8" t="str" cm="1">
@@ -43464,7 +43467,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="str">
-        <f>IF(B252&lt;&gt;0,ROW(B252)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C252" s="8" t="str" cm="1">
@@ -43474,7 +43477,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="str">
-        <f>IF(B253&lt;&gt;0,ROW(B253)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C253" s="8" t="str" cm="1">
@@ -43484,7 +43487,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="str">
-        <f>IF(B254&lt;&gt;0,ROW(B254)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C254" s="8" t="str" cm="1">
@@ -43494,7 +43497,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="str">
-        <f>IF(B255&lt;&gt;0,ROW(B255)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C255" s="8" t="str" cm="1">
@@ -43504,7 +43507,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="str">
-        <f>IF(B256&lt;&gt;0,ROW(B256)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C256" s="8" t="str" cm="1">
@@ -43514,7 +43517,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="8" t="str">
-        <f>IF(B257&lt;&gt;0,ROW(B257)-1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C257" s="8" t="str" cm="1">
@@ -43524,7 +43527,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="str">
-        <f>IF(B258&lt;&gt;0,ROW(B258)-1,"")</f>
+        <f t="shared" ref="A258:A321" si="4">IF(B258&lt;&gt;0,ROW(B258)-1,"")</f>
         <v/>
       </c>
       <c r="C258" s="8" t="str" cm="1">
@@ -43534,7 +43537,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="8" t="str">
-        <f>IF(B259&lt;&gt;0,ROW(B259)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C259" s="8" t="str" cm="1">
@@ -43544,7 +43547,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="8" t="str">
-        <f>IF(B260&lt;&gt;0,ROW(B260)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C260" s="8" t="str" cm="1">
@@ -43554,7 +43557,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="8" t="str">
-        <f>IF(B261&lt;&gt;0,ROW(B261)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C261" s="8" t="str" cm="1">
@@ -43564,7 +43567,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="8" t="str">
-        <f>IF(B262&lt;&gt;0,ROW(B262)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C262" s="8" t="str" cm="1">
@@ -43574,7 +43577,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="8" t="str">
-        <f>IF(B263&lt;&gt;0,ROW(B263)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C263" s="8" t="str" cm="1">
@@ -43584,7 +43587,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="str">
-        <f>IF(B264&lt;&gt;0,ROW(B264)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C264" s="8" t="str" cm="1">
@@ -43594,7 +43597,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="8" t="str">
-        <f>IF(B265&lt;&gt;0,ROW(B265)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C265" s="8" t="str" cm="1">
@@ -43604,7 +43607,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="str">
-        <f>IF(B266&lt;&gt;0,ROW(B266)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C266" s="8" t="str" cm="1">
@@ -43614,7 +43617,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="8" t="str">
-        <f>IF(B267&lt;&gt;0,ROW(B267)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C267" s="8" t="str" cm="1">
@@ -43624,7 +43627,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="8" t="str">
-        <f>IF(B268&lt;&gt;0,ROW(B268)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C268" s="8" t="str" cm="1">
@@ -43634,7 +43637,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="8" t="str">
-        <f>IF(B269&lt;&gt;0,ROW(B269)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C269" s="8" t="str" cm="1">
@@ -43644,7 +43647,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="str">
-        <f>IF(B270&lt;&gt;0,ROW(B270)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C270" s="8" t="str" cm="1">
@@ -43654,7 +43657,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="8" t="str">
-        <f>IF(B271&lt;&gt;0,ROW(B271)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C271" s="8" t="str" cm="1">
@@ -43664,7 +43667,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="str">
-        <f>IF(B272&lt;&gt;0,ROW(B272)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C272" s="8" t="str" cm="1">
@@ -43674,7 +43677,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="8" t="str">
-        <f>IF(B273&lt;&gt;0,ROW(B273)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C273" s="8" t="str" cm="1">
@@ -43684,7 +43687,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="str">
-        <f>IF(B274&lt;&gt;0,ROW(B274)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C274" s="8" t="str" cm="1">
@@ -43694,7 +43697,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="str">
-        <f>IF(B275&lt;&gt;0,ROW(B275)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C275" s="8" t="str" cm="1">
@@ -43704,7 +43707,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="str">
-        <f>IF(B276&lt;&gt;0,ROW(B276)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C276" s="8" t="str" cm="1">
@@ -43714,7 +43717,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="8" t="str">
-        <f>IF(B277&lt;&gt;0,ROW(B277)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C277" s="8" t="str" cm="1">
@@ -43724,7 +43727,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="str">
-        <f>IF(B278&lt;&gt;0,ROW(B278)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C278" s="8" t="str" cm="1">
@@ -43734,7 +43737,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="8" t="str">
-        <f>IF(B279&lt;&gt;0,ROW(B279)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C279" s="8" t="str" cm="1">
@@ -43744,7 +43747,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="8" t="str">
-        <f>IF(B280&lt;&gt;0,ROW(B280)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C280" s="8" t="str" cm="1">
@@ -43754,7 +43757,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="8" t="str">
-        <f>IF(B281&lt;&gt;0,ROW(B281)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C281" s="8" t="str" cm="1">
@@ -43764,7 +43767,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="8" t="str">
-        <f>IF(B282&lt;&gt;0,ROW(B282)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C282" s="8" t="str" cm="1">
@@ -43774,7 +43777,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="8" t="str">
-        <f>IF(B283&lt;&gt;0,ROW(B283)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C283" s="8" t="str" cm="1">
@@ -43784,7 +43787,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="8" t="str">
-        <f>IF(B284&lt;&gt;0,ROW(B284)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C284" s="8" t="str" cm="1">
@@ -43794,7 +43797,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="8" t="str">
-        <f>IF(B285&lt;&gt;0,ROW(B285)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C285" s="8" t="str" cm="1">
@@ -43804,7 +43807,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="8" t="str">
-        <f>IF(B286&lt;&gt;0,ROW(B286)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C286" s="8" t="str" cm="1">
@@ -43814,7 +43817,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="8" t="str">
-        <f>IF(B287&lt;&gt;0,ROW(B287)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C287" s="8" t="str" cm="1">
@@ -43824,7 +43827,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="8" t="str">
-        <f>IF(B288&lt;&gt;0,ROW(B288)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C288" s="8" t="str" cm="1">
@@ -43834,7 +43837,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="8" t="str">
-        <f>IF(B289&lt;&gt;0,ROW(B289)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C289" s="8" t="str" cm="1">
@@ -43844,7 +43847,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="8" t="str">
-        <f>IF(B290&lt;&gt;0,ROW(B290)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C290" s="8" t="str" cm="1">
@@ -43854,7 +43857,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="8" t="str">
-        <f>IF(B291&lt;&gt;0,ROW(B291)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C291" s="8" t="str" cm="1">
@@ -43864,7 +43867,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="8" t="str">
-        <f>IF(B292&lt;&gt;0,ROW(B292)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C292" s="8" t="str" cm="1">
@@ -43874,7 +43877,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="8" t="str">
-        <f>IF(B293&lt;&gt;0,ROW(B293)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C293" s="8" t="str" cm="1">
@@ -43884,7 +43887,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="8" t="str">
-        <f>IF(B294&lt;&gt;0,ROW(B294)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C294" s="8" t="str" cm="1">
@@ -43894,7 +43897,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="8" t="str">
-        <f>IF(B295&lt;&gt;0,ROW(B295)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C295" s="8" t="str" cm="1">
@@ -43904,7 +43907,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="8" t="str">
-        <f>IF(B296&lt;&gt;0,ROW(B296)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C296" s="8" t="str" cm="1">
@@ -43914,7 +43917,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="8" t="str">
-        <f>IF(B297&lt;&gt;0,ROW(B297)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C297" s="8" t="str" cm="1">
@@ -43924,7 +43927,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="str">
-        <f>IF(B298&lt;&gt;0,ROW(B298)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C298" s="8" t="str" cm="1">
@@ -43934,7 +43937,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="8" t="str">
-        <f>IF(B299&lt;&gt;0,ROW(B299)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C299" s="8" t="str" cm="1">
@@ -43944,7 +43947,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="8" t="str">
-        <f>IF(B300&lt;&gt;0,ROW(B300)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C300" s="8" t="str" cm="1">
@@ -43954,7 +43957,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="8" t="str">
-        <f>IF(B301&lt;&gt;0,ROW(B301)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C301" s="8" t="str" cm="1">
@@ -43964,7 +43967,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="8" t="str">
-        <f>IF(B302&lt;&gt;0,ROW(B302)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C302" s="8" t="str" cm="1">
@@ -43974,7 +43977,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="8" t="str">
-        <f>IF(B303&lt;&gt;0,ROW(B303)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C303" s="8" t="str" cm="1">
@@ -43984,7 +43987,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="8" t="str">
-        <f>IF(B304&lt;&gt;0,ROW(B304)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C304" s="8" t="str" cm="1">
@@ -43994,7 +43997,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="8" t="str">
-        <f>IF(B305&lt;&gt;0,ROW(B305)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C305" s="8" t="str" cm="1">
@@ -44004,7 +44007,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="8" t="str">
-        <f>IF(B306&lt;&gt;0,ROW(B306)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C306" s="8" t="str" cm="1">
@@ -44014,7 +44017,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="8" t="str">
-        <f>IF(B307&lt;&gt;0,ROW(B307)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C307" s="8" t="str" cm="1">
@@ -44024,7 +44027,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="8" t="str">
-        <f>IF(B308&lt;&gt;0,ROW(B308)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C308" s="8" t="str" cm="1">
@@ -44034,7 +44037,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="8" t="str">
-        <f>IF(B309&lt;&gt;0,ROW(B309)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C309" s="8" t="str" cm="1">
@@ -44044,7 +44047,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="8" t="str">
-        <f>IF(B310&lt;&gt;0,ROW(B310)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C310" s="8" t="str" cm="1">
@@ -44054,7 +44057,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="8" t="str">
-        <f>IF(B311&lt;&gt;0,ROW(B311)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C311" s="8" t="str" cm="1">
@@ -44064,7 +44067,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="8" t="str">
-        <f>IF(B312&lt;&gt;0,ROW(B312)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C312" s="8" t="str" cm="1">
@@ -44074,7 +44077,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="8" t="str">
-        <f>IF(B313&lt;&gt;0,ROW(B313)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C313" s="8" t="str" cm="1">
@@ -44084,7 +44087,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="8" t="str">
-        <f>IF(B314&lt;&gt;0,ROW(B314)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C314" s="8" t="str" cm="1">
@@ -44094,7 +44097,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="8" t="str">
-        <f>IF(B315&lt;&gt;0,ROW(B315)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C315" s="8" t="str" cm="1">
@@ -44104,7 +44107,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="8" t="str">
-        <f>IF(B316&lt;&gt;0,ROW(B316)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C316" s="8" t="str" cm="1">
@@ -44114,7 +44117,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="8" t="str">
-        <f>IF(B317&lt;&gt;0,ROW(B317)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C317" s="8" t="str" cm="1">
@@ -44124,7 +44127,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="8" t="str">
-        <f>IF(B318&lt;&gt;0,ROW(B318)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C318" s="8" t="str" cm="1">
@@ -44134,7 +44137,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="8" t="str">
-        <f>IF(B319&lt;&gt;0,ROW(B319)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C319" s="8" t="str" cm="1">
@@ -44144,7 +44147,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="8" t="str">
-        <f>IF(B320&lt;&gt;0,ROW(B320)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C320" s="8" t="str" cm="1">
@@ -44154,7 +44157,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="8" t="str">
-        <f>IF(B321&lt;&gt;0,ROW(B321)-1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C321" s="8" t="str" cm="1">
@@ -44164,7 +44167,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="8" t="str">
-        <f>IF(B322&lt;&gt;0,ROW(B322)-1,"")</f>
+        <f t="shared" ref="A322:A385" si="5">IF(B322&lt;&gt;0,ROW(B322)-1,"")</f>
         <v/>
       </c>
       <c r="C322" s="8" t="str" cm="1">
@@ -44174,7 +44177,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="8" t="str">
-        <f>IF(B323&lt;&gt;0,ROW(B323)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C323" s="8" t="str" cm="1">
@@ -44184,7 +44187,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="8" t="str">
-        <f>IF(B324&lt;&gt;0,ROW(B324)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C324" s="8" t="str" cm="1">
@@ -44194,7 +44197,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="8" t="str">
-        <f>IF(B325&lt;&gt;0,ROW(B325)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C325" s="8" t="str" cm="1">
@@ -44204,7 +44207,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="8" t="str">
-        <f>IF(B326&lt;&gt;0,ROW(B326)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C326" s="8" t="str" cm="1">
@@ -44214,7 +44217,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="8" t="str">
-        <f>IF(B327&lt;&gt;0,ROW(B327)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C327" s="8" t="str" cm="1">
@@ -44224,7 +44227,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="8" t="str">
-        <f>IF(B328&lt;&gt;0,ROW(B328)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C328" s="8" t="str" cm="1">
@@ -44234,7 +44237,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="8" t="str">
-        <f>IF(B329&lt;&gt;0,ROW(B329)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C329" s="8" t="str" cm="1">
@@ -44244,7 +44247,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="8" t="str">
-        <f>IF(B330&lt;&gt;0,ROW(B330)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C330" s="8" t="str" cm="1">
@@ -44254,7 +44257,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="8" t="str">
-        <f>IF(B331&lt;&gt;0,ROW(B331)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C331" s="8" t="str" cm="1">
@@ -44264,7 +44267,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="8" t="str">
-        <f>IF(B332&lt;&gt;0,ROW(B332)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C332" s="8" t="str" cm="1">
@@ -44274,7 +44277,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="8" t="str">
-        <f>IF(B333&lt;&gt;0,ROW(B333)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C333" s="8" t="str" cm="1">
@@ -44284,7 +44287,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="8" t="str">
-        <f>IF(B334&lt;&gt;0,ROW(B334)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C334" s="8" t="str" cm="1">
@@ -44294,7 +44297,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="8" t="str">
-        <f>IF(B335&lt;&gt;0,ROW(B335)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C335" s="8" t="str" cm="1">
@@ -44304,7 +44307,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="8" t="str">
-        <f>IF(B336&lt;&gt;0,ROW(B336)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C336" s="8" t="str" cm="1">
@@ -44314,7 +44317,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="8" t="str">
-        <f>IF(B337&lt;&gt;0,ROW(B337)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C337" s="8" t="str" cm="1">
@@ -44324,7 +44327,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="8" t="str">
-        <f>IF(B338&lt;&gt;0,ROW(B338)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C338" s="8" t="str" cm="1">
@@ -44334,7 +44337,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="8" t="str">
-        <f>IF(B339&lt;&gt;0,ROW(B339)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C339" s="8" t="str" cm="1">
@@ -44344,7 +44347,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="8" t="str">
-        <f>IF(B340&lt;&gt;0,ROW(B340)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C340" s="8" t="str" cm="1">
@@ -44354,7 +44357,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="8" t="str">
-        <f>IF(B341&lt;&gt;0,ROW(B341)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C341" s="8" t="str" cm="1">
@@ -44364,7 +44367,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="8" t="str">
-        <f>IF(B342&lt;&gt;0,ROW(B342)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C342" s="8" t="str" cm="1">
@@ -44374,7 +44377,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="8" t="str">
-        <f>IF(B343&lt;&gt;0,ROW(B343)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C343" s="8" t="str" cm="1">
@@ -44384,7 +44387,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="8" t="str">
-        <f>IF(B344&lt;&gt;0,ROW(B344)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C344" s="8" t="str" cm="1">
@@ -44394,7 +44397,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="8" t="str">
-        <f>IF(B345&lt;&gt;0,ROW(B345)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C345" s="8" t="str" cm="1">
@@ -44404,7 +44407,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="8" t="str">
-        <f>IF(B346&lt;&gt;0,ROW(B346)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C346" s="8" t="str" cm="1">
@@ -44414,7 +44417,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="8" t="str">
-        <f>IF(B347&lt;&gt;0,ROW(B347)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C347" s="8" t="str" cm="1">
@@ -44424,7 +44427,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="8" t="str">
-        <f>IF(B348&lt;&gt;0,ROW(B348)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C348" s="8" t="str" cm="1">
@@ -44434,7 +44437,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="8" t="str">
-        <f>IF(B349&lt;&gt;0,ROW(B349)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C349" s="8" t="str" cm="1">
@@ -44444,7 +44447,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="8" t="str">
-        <f>IF(B350&lt;&gt;0,ROW(B350)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C350" s="8" t="str" cm="1">
@@ -44454,7 +44457,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="8" t="str">
-        <f>IF(B351&lt;&gt;0,ROW(B351)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C351" s="8" t="str" cm="1">
@@ -44464,7 +44467,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="8" t="str">
-        <f>IF(B352&lt;&gt;0,ROW(B352)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C352" s="8" t="str" cm="1">
@@ -44474,7 +44477,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="str">
-        <f>IF(B353&lt;&gt;0,ROW(B353)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C353" s="8" t="str" cm="1">
@@ -44484,7 +44487,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="8" t="str">
-        <f>IF(B354&lt;&gt;0,ROW(B354)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C354" s="8" t="str" cm="1">
@@ -44494,7 +44497,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="8" t="str">
-        <f>IF(B355&lt;&gt;0,ROW(B355)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C355" s="8" t="str" cm="1">
@@ -44504,7 +44507,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="8" t="str">
-        <f>IF(B356&lt;&gt;0,ROW(B356)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C356" s="8" t="str" cm="1">
@@ -44514,7 +44517,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="8" t="str">
-        <f>IF(B357&lt;&gt;0,ROW(B357)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C357" s="8" t="str" cm="1">
@@ -44524,7 +44527,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="8" t="str">
-        <f>IF(B358&lt;&gt;0,ROW(B358)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C358" s="8" t="str" cm="1">
@@ -44534,7 +44537,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="8" t="str">
-        <f>IF(B359&lt;&gt;0,ROW(B359)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C359" s="8" t="str" cm="1">
@@ -44544,7 +44547,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="8" t="str">
-        <f>IF(B360&lt;&gt;0,ROW(B360)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C360" s="8" t="str" cm="1">
@@ -44554,7 +44557,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="8" t="str">
-        <f>IF(B361&lt;&gt;0,ROW(B361)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C361" s="8" t="str" cm="1">
@@ -44564,7 +44567,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="8" t="str">
-        <f>IF(B362&lt;&gt;0,ROW(B362)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C362" s="8" t="str" cm="1">
@@ -44574,7 +44577,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="8" t="str">
-        <f>IF(B363&lt;&gt;0,ROW(B363)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C363" s="8" t="str" cm="1">
@@ -44584,7 +44587,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="8" t="str">
-        <f>IF(B364&lt;&gt;0,ROW(B364)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C364" s="8" t="str" cm="1">
@@ -44594,7 +44597,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="8" t="str">
-        <f>IF(B365&lt;&gt;0,ROW(B365)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C365" s="8" t="str" cm="1">
@@ -44604,7 +44607,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="8" t="str">
-        <f>IF(B366&lt;&gt;0,ROW(B366)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C366" s="8" t="str" cm="1">
@@ -44614,7 +44617,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="8" t="str">
-        <f>IF(B367&lt;&gt;0,ROW(B367)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C367" s="8" t="str" cm="1">
@@ -44624,7 +44627,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="8" t="str">
-        <f>IF(B368&lt;&gt;0,ROW(B368)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C368" s="8" t="str" cm="1">
@@ -44634,7 +44637,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="8" t="str">
-        <f>IF(B369&lt;&gt;0,ROW(B369)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C369" s="8" t="str" cm="1">
@@ -44644,7 +44647,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="8" t="str">
-        <f>IF(B370&lt;&gt;0,ROW(B370)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C370" s="8" t="str" cm="1">
@@ -44654,7 +44657,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="8" t="str">
-        <f>IF(B371&lt;&gt;0,ROW(B371)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C371" s="8" t="str" cm="1">
@@ -44664,7 +44667,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="8" t="str">
-        <f>IF(B372&lt;&gt;0,ROW(B372)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C372" s="8" t="str" cm="1">
@@ -44674,7 +44677,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="8" t="str">
-        <f>IF(B373&lt;&gt;0,ROW(B373)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C373" s="8" t="str" cm="1">
@@ -44684,7 +44687,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="8" t="str">
-        <f>IF(B374&lt;&gt;0,ROW(B374)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C374" s="8" t="str" cm="1">
@@ -44694,7 +44697,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="8" t="str">
-        <f>IF(B375&lt;&gt;0,ROW(B375)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C375" s="8" t="str" cm="1">
@@ -44704,7 +44707,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="8" t="str">
-        <f>IF(B376&lt;&gt;0,ROW(B376)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C376" s="8" t="str" cm="1">
@@ -44714,7 +44717,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="8" t="str">
-        <f>IF(B377&lt;&gt;0,ROW(B377)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C377" s="8" t="str" cm="1">
@@ -44724,7 +44727,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="8" t="str">
-        <f>IF(B378&lt;&gt;0,ROW(B378)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C378" s="8" t="str" cm="1">
@@ -44734,7 +44737,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="8" t="str">
-        <f>IF(B379&lt;&gt;0,ROW(B379)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C379" s="8" t="str" cm="1">
@@ -44744,7 +44747,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="8" t="str">
-        <f>IF(B380&lt;&gt;0,ROW(B380)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C380" s="8" t="str" cm="1">
@@ -44754,7 +44757,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="8" t="str">
-        <f>IF(B381&lt;&gt;0,ROW(B381)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C381" s="8" t="str" cm="1">
@@ -44764,7 +44767,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="8" t="str">
-        <f>IF(B382&lt;&gt;0,ROW(B382)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C382" s="8" t="str" cm="1">
@@ -44774,7 +44777,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="8" t="str">
-        <f>IF(B383&lt;&gt;0,ROW(B383)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C383" s="8" t="str" cm="1">
@@ -44784,7 +44787,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="8" t="str">
-        <f>IF(B384&lt;&gt;0,ROW(B384)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C384" s="8" t="str" cm="1">
@@ -44794,7 +44797,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="8" t="str">
-        <f>IF(B385&lt;&gt;0,ROW(B385)-1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C385" s="8" t="str" cm="1">
@@ -44804,7 +44807,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="8" t="str">
-        <f>IF(B386&lt;&gt;0,ROW(B386)-1,"")</f>
+        <f t="shared" ref="A386:A449" si="6">IF(B386&lt;&gt;0,ROW(B386)-1,"")</f>
         <v/>
       </c>
       <c r="C386" s="8" t="str" cm="1">
@@ -44814,7 +44817,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="8" t="str">
-        <f>IF(B387&lt;&gt;0,ROW(B387)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C387" s="8" t="str" cm="1">
@@ -44824,7 +44827,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="8" t="str">
-        <f>IF(B388&lt;&gt;0,ROW(B388)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C388" s="8" t="str" cm="1">
@@ -44834,7 +44837,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="8" t="str">
-        <f>IF(B389&lt;&gt;0,ROW(B389)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C389" s="8" t="str" cm="1">
@@ -44844,7 +44847,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="8" t="str">
-        <f>IF(B390&lt;&gt;0,ROW(B390)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C390" s="8" t="str" cm="1">
@@ -44854,7 +44857,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="8" t="str">
-        <f>IF(B391&lt;&gt;0,ROW(B391)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C391" s="8" t="str" cm="1">
@@ -44864,7 +44867,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="8" t="str">
-        <f>IF(B392&lt;&gt;0,ROW(B392)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C392" s="8" t="str" cm="1">
@@ -44874,7 +44877,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="8" t="str">
-        <f>IF(B393&lt;&gt;0,ROW(B393)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C393" s="8" t="str" cm="1">
@@ -44884,7 +44887,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="8" t="str">
-        <f>IF(B394&lt;&gt;0,ROW(B394)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C394" s="8" t="str" cm="1">
@@ -44894,7 +44897,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="8" t="str">
-        <f>IF(B395&lt;&gt;0,ROW(B395)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C395" s="8" t="str" cm="1">
@@ -44904,7 +44907,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="8" t="str">
-        <f>IF(B396&lt;&gt;0,ROW(B396)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C396" s="8" t="str" cm="1">
@@ -44914,7 +44917,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="8" t="str">
-        <f>IF(B397&lt;&gt;0,ROW(B397)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C397" s="8" t="str" cm="1">
@@ -44924,7 +44927,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="8" t="str">
-        <f>IF(B398&lt;&gt;0,ROW(B398)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C398" s="8" t="str" cm="1">
@@ -44934,7 +44937,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="8" t="str">
-        <f>IF(B399&lt;&gt;0,ROW(B399)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C399" s="8" t="str" cm="1">
@@ -44944,7 +44947,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="8" t="str">
-        <f>IF(B400&lt;&gt;0,ROW(B400)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C400" s="8" t="str" cm="1">
@@ -44954,7 +44957,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="8" t="str">
-        <f>IF(B401&lt;&gt;0,ROW(B401)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C401" s="8" t="str" cm="1">
@@ -44964,7 +44967,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="8" t="str">
-        <f>IF(B402&lt;&gt;0,ROW(B402)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C402" s="8" t="str" cm="1">
@@ -44974,7 +44977,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="8" t="str">
-        <f>IF(B403&lt;&gt;0,ROW(B403)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C403" s="8" t="str" cm="1">
@@ -44984,7 +44987,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="8" t="str">
-        <f>IF(B404&lt;&gt;0,ROW(B404)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C404" s="8" t="str" cm="1">
@@ -44994,7 +44997,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="8" t="str">
-        <f>IF(B405&lt;&gt;0,ROW(B405)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C405" s="8" t="str" cm="1">
@@ -45004,7 +45007,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="8" t="str">
-        <f>IF(B406&lt;&gt;0,ROW(B406)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C406" s="8" t="str" cm="1">
@@ -45014,7 +45017,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="8" t="str">
-        <f>IF(B407&lt;&gt;0,ROW(B407)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C407" s="8" t="str" cm="1">
@@ -45024,7 +45027,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="8" t="str">
-        <f>IF(B408&lt;&gt;0,ROW(B408)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C408" s="8" t="str" cm="1">
@@ -45034,7 +45037,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="8" t="str">
-        <f>IF(B409&lt;&gt;0,ROW(B409)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C409" s="8" t="str" cm="1">
@@ -45044,7 +45047,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="8" t="str">
-        <f>IF(B410&lt;&gt;0,ROW(B410)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C410" s="8" t="str" cm="1">
@@ -45054,7 +45057,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="8" t="str">
-        <f>IF(B411&lt;&gt;0,ROW(B411)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C411" s="8" t="str" cm="1">
@@ -45064,7 +45067,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="8" t="str">
-        <f>IF(B412&lt;&gt;0,ROW(B412)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C412" s="8" t="str" cm="1">
@@ -45074,7 +45077,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="8" t="str">
-        <f>IF(B413&lt;&gt;0,ROW(B413)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C413" s="8" t="str" cm="1">
@@ -45084,7 +45087,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="8" t="str">
-        <f>IF(B414&lt;&gt;0,ROW(B414)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C414" s="8" t="str" cm="1">
@@ -45094,7 +45097,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="8" t="str">
-        <f>IF(B415&lt;&gt;0,ROW(B415)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C415" s="8" t="str" cm="1">
@@ -45104,7 +45107,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="8" t="str">
-        <f>IF(B416&lt;&gt;0,ROW(B416)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C416" s="8" t="str" cm="1">
@@ -45114,7 +45117,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="8" t="str">
-        <f>IF(B417&lt;&gt;0,ROW(B417)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C417" s="8" t="str" cm="1">
@@ -45124,7 +45127,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="8" t="str">
-        <f>IF(B418&lt;&gt;0,ROW(B418)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C418" s="8" t="str" cm="1">
@@ -45134,7 +45137,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="8" t="str">
-        <f>IF(B419&lt;&gt;0,ROW(B419)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C419" s="8" t="str" cm="1">
@@ -45144,7 +45147,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="8" t="str">
-        <f>IF(B420&lt;&gt;0,ROW(B420)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C420" s="8" t="str" cm="1">
@@ -45154,7 +45157,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="8" t="str">
-        <f>IF(B421&lt;&gt;0,ROW(B421)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C421" s="8" t="str" cm="1">
@@ -45164,7 +45167,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="8" t="str">
-        <f>IF(B422&lt;&gt;0,ROW(B422)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C422" s="8" t="str" cm="1">
@@ -45174,7 +45177,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="8" t="str">
-        <f>IF(B423&lt;&gt;0,ROW(B423)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C423" s="8" t="str" cm="1">
@@ -45184,7 +45187,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="8" t="str">
-        <f>IF(B424&lt;&gt;0,ROW(B424)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C424" s="8" t="str" cm="1">
@@ -45194,7 +45197,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="8" t="str">
-        <f>IF(B425&lt;&gt;0,ROW(B425)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C425" s="8" t="str" cm="1">
@@ -45204,7 +45207,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="8" t="str">
-        <f>IF(B426&lt;&gt;0,ROW(B426)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C426" s="8" t="str" cm="1">
@@ -45214,7 +45217,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="8" t="str">
-        <f>IF(B427&lt;&gt;0,ROW(B427)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C427" s="8" t="str" cm="1">
@@ -45224,7 +45227,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="8" t="str">
-        <f>IF(B428&lt;&gt;0,ROW(B428)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C428" s="8" t="str" cm="1">
@@ -45234,7 +45237,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="8" t="str">
-        <f>IF(B429&lt;&gt;0,ROW(B429)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C429" s="8" t="str" cm="1">
@@ -45244,7 +45247,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="8" t="str">
-        <f>IF(B430&lt;&gt;0,ROW(B430)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C430" s="8" t="str" cm="1">
@@ -45254,7 +45257,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="8" t="str">
-        <f>IF(B431&lt;&gt;0,ROW(B431)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C431" s="8" t="str" cm="1">
@@ -45264,7 +45267,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="8" t="str">
-        <f>IF(B432&lt;&gt;0,ROW(B432)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C432" s="8" t="str" cm="1">
@@ -45274,7 +45277,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="8" t="str">
-        <f>IF(B433&lt;&gt;0,ROW(B433)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C433" s="8" t="str" cm="1">
@@ -45284,7 +45287,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="8" t="str">
-        <f>IF(B434&lt;&gt;0,ROW(B434)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C434" s="8" t="str" cm="1">
@@ -45294,7 +45297,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="8" t="str">
-        <f>IF(B435&lt;&gt;0,ROW(B435)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C435" s="8" t="str" cm="1">
@@ -45304,7 +45307,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="8" t="str">
-        <f>IF(B436&lt;&gt;0,ROW(B436)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C436" s="8" t="str" cm="1">
@@ -45314,7 +45317,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="8" t="str">
-        <f>IF(B437&lt;&gt;0,ROW(B437)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C437" s="8" t="str" cm="1">
@@ -45324,7 +45327,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="8" t="str">
-        <f>IF(B438&lt;&gt;0,ROW(B438)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C438" s="8" t="str" cm="1">
@@ -45334,7 +45337,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="8" t="str">
-        <f>IF(B439&lt;&gt;0,ROW(B439)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C439" s="8" t="str" cm="1">
@@ -45344,7 +45347,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="8" t="str">
-        <f>IF(B440&lt;&gt;0,ROW(B440)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C440" s="8" t="str" cm="1">
@@ -45354,7 +45357,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="8" t="str">
-        <f>IF(B441&lt;&gt;0,ROW(B441)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C441" s="8" t="str" cm="1">
@@ -45364,7 +45367,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="8" t="str">
-        <f>IF(B442&lt;&gt;0,ROW(B442)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C442" s="8" t="str" cm="1">
@@ -45374,7 +45377,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="8" t="str">
-        <f>IF(B443&lt;&gt;0,ROW(B443)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C443" s="8" t="str" cm="1">
@@ -45384,7 +45387,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="8" t="str">
-        <f>IF(B444&lt;&gt;0,ROW(B444)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C444" s="8" t="str" cm="1">
@@ -45394,7 +45397,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="8" t="str">
-        <f>IF(B445&lt;&gt;0,ROW(B445)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C445" s="8" t="str" cm="1">
@@ -45404,7 +45407,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="8" t="str">
-        <f>IF(B446&lt;&gt;0,ROW(B446)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C446" s="8" t="str" cm="1">
@@ -45414,7 +45417,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="8" t="str">
-        <f>IF(B447&lt;&gt;0,ROW(B447)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C447" s="8" t="str" cm="1">
@@ -45424,7 +45427,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="8" t="str">
-        <f>IF(B448&lt;&gt;0,ROW(B448)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C448" s="8" t="str" cm="1">
@@ -45434,7 +45437,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="8" t="str">
-        <f>IF(B449&lt;&gt;0,ROW(B449)-1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C449" s="8" t="str" cm="1">
@@ -45444,7 +45447,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="8" t="str">
-        <f>IF(B450&lt;&gt;0,ROW(B450)-1,"")</f>
+        <f t="shared" ref="A450:A513" si="7">IF(B450&lt;&gt;0,ROW(B450)-1,"")</f>
         <v/>
       </c>
       <c r="C450" s="8" t="str" cm="1">
@@ -45454,7 +45457,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="8" t="str">
-        <f>IF(B451&lt;&gt;0,ROW(B451)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C451" s="8" t="str" cm="1">
@@ -45464,7 +45467,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="8" t="str">
-        <f>IF(B452&lt;&gt;0,ROW(B452)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C452" s="8" t="str" cm="1">
@@ -45474,7 +45477,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="8" t="str">
-        <f>IF(B453&lt;&gt;0,ROW(B453)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C453" s="8" t="str" cm="1">
@@ -45484,7 +45487,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="8" t="str">
-        <f>IF(B454&lt;&gt;0,ROW(B454)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C454" s="8" t="str" cm="1">
@@ -45494,7 +45497,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="8" t="str">
-        <f>IF(B455&lt;&gt;0,ROW(B455)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C455" s="8" t="str" cm="1">
@@ -45504,7 +45507,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="8" t="str">
-        <f>IF(B456&lt;&gt;0,ROW(B456)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C456" s="8" t="str" cm="1">
@@ -45514,7 +45517,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="8" t="str">
-        <f>IF(B457&lt;&gt;0,ROW(B457)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C457" s="8" t="str" cm="1">
@@ -45524,7 +45527,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="8" t="str">
-        <f>IF(B458&lt;&gt;0,ROW(B458)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C458" s="8" t="str" cm="1">
@@ -45534,7 +45537,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="8" t="str">
-        <f>IF(B459&lt;&gt;0,ROW(B459)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C459" s="8" t="str" cm="1">
@@ -45544,7 +45547,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="8" t="str">
-        <f>IF(B460&lt;&gt;0,ROW(B460)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C460" s="8" t="str" cm="1">
@@ -45554,7 +45557,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="8" t="str">
-        <f>IF(B461&lt;&gt;0,ROW(B461)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C461" s="8" t="str" cm="1">
@@ -45564,7 +45567,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="8" t="str">
-        <f>IF(B462&lt;&gt;0,ROW(B462)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C462" s="8" t="str" cm="1">
@@ -45574,7 +45577,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="8" t="str">
-        <f>IF(B463&lt;&gt;0,ROW(B463)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C463" s="8" t="str" cm="1">
@@ -45584,7 +45587,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="8" t="str">
-        <f>IF(B464&lt;&gt;0,ROW(B464)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C464" s="8" t="str" cm="1">
@@ -45594,7 +45597,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="8" t="str">
-        <f>IF(B465&lt;&gt;0,ROW(B465)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C465" s="8" t="str" cm="1">
@@ -45604,7 +45607,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="8" t="str">
-        <f>IF(B466&lt;&gt;0,ROW(B466)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C466" s="8" t="str" cm="1">
@@ -45614,7 +45617,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="8" t="str">
-        <f>IF(B467&lt;&gt;0,ROW(B467)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C467" s="8" t="str" cm="1">
@@ -45624,7 +45627,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="8" t="str">
-        <f>IF(B468&lt;&gt;0,ROW(B468)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C468" s="8" t="str" cm="1">
@@ -45634,7 +45637,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="8" t="str">
-        <f>IF(B469&lt;&gt;0,ROW(B469)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C469" s="8" t="str" cm="1">
@@ -45644,7 +45647,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="8" t="str">
-        <f>IF(B470&lt;&gt;0,ROW(B470)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C470" s="8" t="str" cm="1">
@@ -45654,7 +45657,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="8" t="str">
-        <f>IF(B471&lt;&gt;0,ROW(B471)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C471" s="8" t="str" cm="1">
@@ -45664,7 +45667,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="8" t="str">
-        <f>IF(B472&lt;&gt;0,ROW(B472)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C472" s="8" t="str" cm="1">
@@ -45674,7 +45677,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="8" t="str">
-        <f>IF(B473&lt;&gt;0,ROW(B473)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C473" s="8" t="str" cm="1">
@@ -45684,7 +45687,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="8" t="str">
-        <f>IF(B474&lt;&gt;0,ROW(B474)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C474" s="8" t="str" cm="1">
@@ -45694,7 +45697,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="8" t="str">
-        <f>IF(B475&lt;&gt;0,ROW(B475)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C475" s="8" t="str" cm="1">
@@ -45704,7 +45707,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="8" t="str">
-        <f>IF(B476&lt;&gt;0,ROW(B476)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C476" s="8" t="str" cm="1">
@@ -45714,7 +45717,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="8" t="str">
-        <f>IF(B477&lt;&gt;0,ROW(B477)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C477" s="8" t="str" cm="1">
@@ -45724,7 +45727,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="8" t="str">
-        <f>IF(B478&lt;&gt;0,ROW(B478)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C478" s="8" t="str" cm="1">
@@ -45734,7 +45737,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="8" t="str">
-        <f>IF(B479&lt;&gt;0,ROW(B479)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C479" s="8" t="str" cm="1">
@@ -45744,7 +45747,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="8" t="str">
-        <f>IF(B480&lt;&gt;0,ROW(B480)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C480" s="8" t="str" cm="1">
@@ -45754,7 +45757,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="8" t="str">
-        <f>IF(B481&lt;&gt;0,ROW(B481)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C481" s="8" t="str" cm="1">
@@ -45764,7 +45767,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="8" t="str">
-        <f>IF(B482&lt;&gt;0,ROW(B482)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C482" s="8" t="str" cm="1">
@@ -45774,7 +45777,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="8" t="str">
-        <f>IF(B483&lt;&gt;0,ROW(B483)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C483" s="8" t="str" cm="1">
@@ -45784,7 +45787,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="8" t="str">
-        <f>IF(B484&lt;&gt;0,ROW(B484)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C484" s="8" t="str" cm="1">
@@ -45794,7 +45797,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="8" t="str">
-        <f>IF(B485&lt;&gt;0,ROW(B485)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C485" s="8" t="str" cm="1">
@@ -45804,7 +45807,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="8" t="str">
-        <f>IF(B486&lt;&gt;0,ROW(B486)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C486" s="8" t="str" cm="1">
@@ -45814,7 +45817,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="8" t="str">
-        <f>IF(B487&lt;&gt;0,ROW(B487)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C487" s="8" t="str" cm="1">
@@ -45824,7 +45827,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="8" t="str">
-        <f>IF(B488&lt;&gt;0,ROW(B488)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C488" s="8" t="str" cm="1">
@@ -45834,7 +45837,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="8" t="str">
-        <f>IF(B489&lt;&gt;0,ROW(B489)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C489" s="8" t="str" cm="1">
@@ -45844,7 +45847,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="8" t="str">
-        <f>IF(B490&lt;&gt;0,ROW(B490)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C490" s="8" t="str" cm="1">
@@ -45854,7 +45857,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="8" t="str">
-        <f>IF(B491&lt;&gt;0,ROW(B491)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C491" s="8" t="str" cm="1">
@@ -45864,7 +45867,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="8" t="str">
-        <f>IF(B492&lt;&gt;0,ROW(B492)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C492" s="8" t="str" cm="1">
@@ -45874,7 +45877,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="8" t="str">
-        <f>IF(B493&lt;&gt;0,ROW(B493)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C493" s="8" t="str" cm="1">
@@ -45884,7 +45887,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="8" t="str">
-        <f>IF(B494&lt;&gt;0,ROW(B494)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C494" s="8" t="str" cm="1">
@@ -45894,7 +45897,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="8" t="str">
-        <f>IF(B495&lt;&gt;0,ROW(B495)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C495" s="8" t="str" cm="1">
@@ -45904,7 +45907,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="8" t="str">
-        <f>IF(B496&lt;&gt;0,ROW(B496)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C496" s="8" t="str" cm="1">
@@ -45914,7 +45917,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="8" t="str">
-        <f>IF(B497&lt;&gt;0,ROW(B497)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C497" s="8" t="str" cm="1">
@@ -45924,7 +45927,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="8" t="str">
-        <f>IF(B498&lt;&gt;0,ROW(B498)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C498" s="8" t="str" cm="1">
@@ -45934,7 +45937,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="8" t="str">
-        <f>IF(B499&lt;&gt;0,ROW(B499)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C499" s="8" t="str" cm="1">
@@ -45944,7 +45947,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="8" t="str">
-        <f>IF(B500&lt;&gt;0,ROW(B500)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C500" s="8" t="str" cm="1">
@@ -45954,7 +45957,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="8" t="str">
-        <f>IF(B501&lt;&gt;0,ROW(B501)-1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C501" s="8" t="str" cm="1">
@@ -46101,8 +46104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACFEA2C-50F2-4DAF-809B-92B337E99259}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46192,10 +46195,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7287024E-9771-41CB-BF2A-BEE10DB9B829}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46305,6 +46308,11 @@
         <v>905</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1027</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
